--- a/data/trans_orig/P5710-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>283320</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262029</v>
+        <v>261096</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>305021</v>
+        <v>304566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5993764346060476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5543345083106191</v>
+        <v>0.5523593562129911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6452843454401969</v>
+        <v>0.6443233330327801</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -765,19 +765,19 @@
         <v>181694</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161968</v>
+        <v>163432</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>198771</v>
+        <v>198118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5924562486956489</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5281332969753574</v>
+        <v>0.5329067974155735</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6481378811872814</v>
+        <v>0.6460076720438163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>453</v>
@@ -786,19 +786,19 @@
         <v>465015</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>435614</v>
+        <v>436557</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>491710</v>
+        <v>491385</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5966533646970031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5589296153340079</v>
+        <v>0.5601399679012559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6309057545474085</v>
+        <v>0.6304878445445039</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>130713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110669</v>
+        <v>110874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150117</v>
+        <v>152071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2765279360383298</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.23412532204797</v>
+        <v>0.2345586571751088</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3175783092556353</v>
+        <v>0.3217127699676561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -836,19 +836,19 @@
         <v>86317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72234</v>
+        <v>71808</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103427</v>
+        <v>102922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.281454817210352</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2355351747637202</v>
+        <v>0.2341463882406608</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3372461400470619</v>
+        <v>0.3355998166253895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>208</v>
@@ -857,19 +857,19 @@
         <v>217029</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>192019</v>
+        <v>192729</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>243101</v>
+        <v>243997</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2784666472288502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2463759466139582</v>
+        <v>0.2472879421426094</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3119194485143247</v>
+        <v>0.3130691282563833</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>42890</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31783</v>
+        <v>31065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57745</v>
+        <v>56897</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09073529704133243</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06723823771366989</v>
+        <v>0.06571853575415094</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1221615555016726</v>
+        <v>0.1203686487658408</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -907,19 +907,19 @@
         <v>28300</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19436</v>
+        <v>19368</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39983</v>
+        <v>38368</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09227794897078871</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06337526681411863</v>
+        <v>0.06315537233249621</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1303721368189899</v>
+        <v>0.1251067873453411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -928,19 +928,19 @@
         <v>71190</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55955</v>
+        <v>56986</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>89196</v>
+        <v>89270</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09134232539340595</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0717955292895804</v>
+        <v>0.07311810711206934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1144464680094627</v>
+        <v>0.1145406505956318</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>14702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7623</v>
+        <v>8450</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24334</v>
+        <v>24686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03110307092165153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0161268590118456</v>
+        <v>0.01787596004298107</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05148006767930267</v>
+        <v>0.05222463759788433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -978,19 +978,19 @@
         <v>9138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4229</v>
+        <v>3931</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18046</v>
+        <v>18360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02979743273420529</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01379106989850765</v>
+        <v>0.01281716396988195</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05884290119048396</v>
+        <v>0.05986621480301357</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -999,19 +999,19 @@
         <v>23840</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15634</v>
+        <v>15151</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37183</v>
+        <v>37076</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03058930668086839</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.020060327082371</v>
+        <v>0.01944036496165796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04770955075121738</v>
+        <v>0.04757213990896136</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6041</v>
+        <v>5393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002257261392638597</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01278089814068</v>
+        <v>0.01140984810857065</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6212</v>
+        <v>6185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004013552389005053</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02025479269292477</v>
+        <v>0.02016858118576121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01046437118394647</v>
+        <v>0.01046463952709998</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>233836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>215182</v>
+        <v>212362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251688</v>
+        <v>251273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.637271103005545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5864319818253151</v>
+        <v>0.5787458503395931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.685920399413424</v>
+        <v>0.6847896981213011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -1195,19 +1195,19 @@
         <v>227761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207792</v>
+        <v>207691</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>247001</v>
+        <v>245302</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6124828849440125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5587846229500342</v>
+        <v>0.5585106089875336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6642212432736937</v>
+        <v>0.6596539487410723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>444</v>
@@ -1216,19 +1216,19 @@
         <v>461597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>435863</v>
+        <v>435206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>488064</v>
+        <v>490543</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6247942760081238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5899611706353504</v>
+        <v>0.5890719332838487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6606177150312188</v>
+        <v>0.6639736184650162</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>82286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67319</v>
+        <v>67002</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98616</v>
+        <v>99242</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2242528266054926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1834637450929738</v>
+        <v>0.1825999119654978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2687569361797697</v>
+        <v>0.2704635986810739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -1266,19 +1266,19 @@
         <v>100147</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83384</v>
+        <v>84849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115979</v>
+        <v>118308</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2693111678835693</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2242306607132881</v>
+        <v>0.2281716466820125</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.311883541132322</v>
+        <v>0.3181471744680562</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>178</v>
@@ -1287,19 +1287,19 @@
         <v>182433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>159170</v>
+        <v>159980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>204861</v>
+        <v>206344</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2469323563531251</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2154441809773145</v>
+        <v>0.2165401770540182</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2772896607729765</v>
+        <v>0.2792963451862348</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>36477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25864</v>
+        <v>25885</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48122</v>
+        <v>49650</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09940896895781898</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07048731292069059</v>
+        <v>0.07054365625547418</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1311458293124278</v>
+        <v>0.1353102486365044</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -1337,19 +1337,19 @@
         <v>35211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25399</v>
+        <v>24835</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50044</v>
+        <v>48205</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09468840714712316</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06830200802415946</v>
+        <v>0.06678478143892815</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.134576949271121</v>
+        <v>0.1296316270568924</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1358,19 +1358,19 @@
         <v>71688</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57636</v>
+        <v>56703</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91104</v>
+        <v>88776</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09703293559808002</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07801247203645285</v>
+        <v>0.07675070239626083</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1233134653613187</v>
+        <v>0.1201621824999148</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>14335</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7376</v>
+        <v>8186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24588</v>
+        <v>25423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03906710143114349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02010211963954716</v>
+        <v>0.02230839071137505</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06700994140915321</v>
+        <v>0.06928450271444574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1408,19 +1408,19 @@
         <v>6975</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3061</v>
+        <v>2947</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14082</v>
+        <v>13611</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01875590855550527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008231714016550875</v>
+        <v>0.007923708109866442</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03786983483820764</v>
+        <v>0.03660330585070191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1429,19 +1429,19 @@
         <v>21310</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13402</v>
+        <v>12837</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33398</v>
+        <v>32696</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02884372680245807</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01814018652056753</v>
+        <v>0.01737564049296335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04520615197713107</v>
+        <v>0.04425574764774896</v>
       </c>
     </row>
     <row r="14">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5677</v>
+        <v>6176</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004761631469789676</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01526763630891624</v>
+        <v>0.01660917146549174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5683</v>
+        <v>6367</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002396705238213056</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007691547611336736</v>
+        <v>0.008618275326759389</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>303724</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>281871</v>
+        <v>281459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>326437</v>
+        <v>331613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5599748443682685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5196844433257636</v>
+        <v>0.5189240110442822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6018507328367355</v>
+        <v>0.6113929308761598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -1617,19 +1617,19 @@
         <v>95932</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83698</v>
+        <v>82732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107864</v>
+        <v>109695</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5717632530990961</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4988514888088977</v>
+        <v>0.4930910412946121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6428793148334209</v>
+        <v>0.6537926011695026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>389</v>
@@ -1638,19 +1638,19 @@
         <v>399656</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>374069</v>
+        <v>375722</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>425533</v>
+        <v>428826</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5627599224679875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5267307949216938</v>
+        <v>0.5290580505858651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5991977214367527</v>
+        <v>0.6038354399745596</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>147977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125545</v>
+        <v>127123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168268</v>
+        <v>168578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2728252489857185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2314660383091064</v>
+        <v>0.2343759564701857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3102355175057104</v>
+        <v>0.3108068410565426</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -1688,19 +1688,19 @@
         <v>48214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37667</v>
+        <v>37034</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60015</v>
+        <v>60261</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2873615975150993</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2245017537009889</v>
+        <v>0.2207239356728259</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3576933352246474</v>
+        <v>0.3591628790257516</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>198</v>
@@ -1709,19 +1709,19 @@
         <v>196192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174612</v>
+        <v>172781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>219455</v>
+        <v>217074</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2762595433729829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2458726431434365</v>
+        <v>0.2432943032283704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3090165628525252</v>
+        <v>0.305663733953055</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>74139</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59491</v>
+        <v>58111</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>91717</v>
+        <v>91772</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1366895174739069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1096834220388306</v>
+        <v>0.107139324571373</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1690985987674572</v>
+        <v>0.1691994048406287</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -1759,19 +1759,19 @@
         <v>15741</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9577</v>
+        <v>9250</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25455</v>
+        <v>24633</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09382088433206687</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05708080527035698</v>
+        <v>0.0551281435452514</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1517124814747111</v>
+        <v>0.1468162595430289</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -1780,19 +1780,19 @@
         <v>89880</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71131</v>
+        <v>72226</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>109426</v>
+        <v>108596</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1265615609316465</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1001604676009336</v>
+        <v>0.1017015866263747</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1540845105337637</v>
+        <v>0.1529154001737999</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>15508</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9126</v>
+        <v>9025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25977</v>
+        <v>25158</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02859188083746186</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01682585500109833</v>
+        <v>0.01663851547383356</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04789283212600054</v>
+        <v>0.04638364668290978</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1830,19 +1830,19 @@
         <v>6728</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16396</v>
+        <v>15911</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04009775401153642</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01287041796448358</v>
+        <v>0.01283144664531546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09772244771178717</v>
+        <v>0.09483339596083692</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -1851,19 +1851,19 @@
         <v>22236</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14063</v>
+        <v>13582</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35454</v>
+        <v>34531</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03131020831718857</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0198018855785941</v>
+        <v>0.01912447399652956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04992366083062567</v>
+        <v>0.04862397851846924</v>
       </c>
     </row>
     <row r="20">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5250</v>
+        <v>5233</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001918508334644262</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009679585184623899</v>
+        <v>0.009648313546454915</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5850</v>
+        <v>5845</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00695651104220123</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03486436005289567</v>
+        <v>0.03483976156564249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7515</v>
+        <v>7787</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00310876491019453</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01058257318666201</v>
+        <v>0.01096488638195026</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>695992</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>660804</v>
+        <v>662673</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>729420</v>
+        <v>733543</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5620393408133986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.533623203802888</v>
+        <v>0.5351327695803259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5890334791127282</v>
+        <v>0.5923626284314839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>376</v>
@@ -2047,19 +2047,19 @@
         <v>382597</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>354939</v>
+        <v>353354</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>409593</v>
+        <v>407644</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5356369714291146</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4969155226973444</v>
+        <v>0.4946956413910447</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5734306562412463</v>
+        <v>0.570701687642667</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1058</v>
@@ -2068,19 +2068,19 @@
         <v>1078590</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1036124</v>
+        <v>1032423</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1123751</v>
+        <v>1122416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5523811237844455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5306327055806894</v>
+        <v>0.5287374295478287</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.575509560169354</v>
+        <v>0.5748257731483193</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>345227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>316803</v>
+        <v>312113</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>378415</v>
+        <v>376744</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2787838226139038</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2558303678836878</v>
+        <v>0.2520430161396863</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3055838761741762</v>
+        <v>0.3042346746943269</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>206</v>
@@ -2118,19 +2118,19 @@
         <v>212803</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>187885</v>
+        <v>188975</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>238617</v>
+        <v>238540</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2979251817604176</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.263039760048565</v>
+        <v>0.2645650461897118</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3340641639004842</v>
+        <v>0.3339561479772865</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>549</v>
@@ -2139,19 +2139,19 @@
         <v>558031</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>519329</v>
+        <v>515580</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>598778</v>
+        <v>597347</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2857858987600019</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2659650952845795</v>
+        <v>0.2640449915957714</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3066535444039848</v>
+        <v>0.3059205710117088</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>162340</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>139916</v>
+        <v>139787</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>186202</v>
+        <v>186373</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1310951013471264</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1129871294890068</v>
+        <v>0.1128834944871449</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1503649341965708</v>
+        <v>0.1505027871227657</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>87</v>
@@ -2189,19 +2189,19 @@
         <v>93031</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>76056</v>
+        <v>76682</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>112112</v>
+        <v>112391</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1302435882645398</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.106478786334869</v>
+        <v>0.1073552965886906</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1569562691855069</v>
+        <v>0.1573471829759991</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>251</v>
@@ -2210,19 +2210,19 @@
         <v>255371</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>227210</v>
+        <v>225913</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>291022</v>
+        <v>287193</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1307836104337575</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1163615470921142</v>
+        <v>0.1156971314825979</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1490416674799485</v>
+        <v>0.147081018473638</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>28224</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18676</v>
+        <v>18907</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39053</v>
+        <v>41085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02279179703703443</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01508124100998838</v>
+        <v>0.01526829284071373</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03153693989416454</v>
+        <v>0.03317740408638321</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2260,19 +2260,19 @@
         <v>24981</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16434</v>
+        <v>16131</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36028</v>
+        <v>35635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03497347878985529</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02300702964244748</v>
+        <v>0.02258327023864794</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05043865081678604</v>
+        <v>0.04988968598178743</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>53</v>
@@ -2281,19 +2281,19 @@
         <v>53205</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39980</v>
+        <v>38648</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67680</v>
+        <v>69294</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02724796248317102</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02047486139508498</v>
+        <v>0.01979301573969462</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03466089094148604</v>
+        <v>0.03548748791114393</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>6551</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2666</v>
+        <v>2636</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14727</v>
+        <v>14304</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005289938188536779</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002152680370302073</v>
+        <v>0.002128928456146146</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01189298574367256</v>
+        <v>0.01155107545220635</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5241</v>
+        <v>4653</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001220779756072665</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.007337060363689981</v>
+        <v>0.006514144056257737</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2352,19 +2352,19 @@
         <v>7423</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2927</v>
+        <v>3053</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15956</v>
+        <v>14798</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003801404538624032</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001499004584229613</v>
+        <v>0.001563546691338658</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008171519871778469</v>
+        <v>0.007578610752804871</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>206652</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>189042</v>
+        <v>187661</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>225619</v>
+        <v>224588</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5895004028302492</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5392648793031271</v>
+        <v>0.5353247197869695</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6436060059860095</v>
+        <v>0.6406627797717267</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>281</v>
@@ -2477,19 +2477,19 @@
         <v>297471</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>270604</v>
+        <v>273306</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>321766</v>
+        <v>321086</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5230242888966702</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4757849584836316</v>
+        <v>0.4805365346103367</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5657403730587227</v>
+        <v>0.5645451726756351</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>481</v>
@@ -2498,19 +2498,19 @@
         <v>504123</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>474601</v>
+        <v>474037</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>534620</v>
+        <v>534175</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5483733281675417</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5162593615038069</v>
+        <v>0.5156462024768595</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5815469165173516</v>
+        <v>0.5810630507125885</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>77605</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62448</v>
+        <v>63717</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>94394</v>
+        <v>94649</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2213784628622821</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1781404558786213</v>
+        <v>0.1817614336877875</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2692692155463641</v>
+        <v>0.2699983762101635</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>130</v>
@@ -2548,19 +2548,19 @@
         <v>136546</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>117032</v>
+        <v>115042</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>156679</v>
+        <v>155082</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2400796416034142</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2057693587895026</v>
+        <v>0.2022713440189357</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2754777827847231</v>
+        <v>0.2726704735825961</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>205</v>
@@ -2569,19 +2569,19 @@
         <v>214151</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>189009</v>
+        <v>189932</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>238346</v>
+        <v>243544</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2329484047384824</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2055993404515976</v>
+        <v>0.2066038619072691</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2592667405106238</v>
+        <v>0.2649209797006746</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>51683</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38930</v>
+        <v>39310</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66184</v>
+        <v>67264</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1474331234324308</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1110524640923243</v>
+        <v>0.1121367492361212</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1887975055925582</v>
+        <v>0.1918777691760309</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -2619,19 +2619,19 @@
         <v>96392</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>80244</v>
+        <v>80391</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>115335</v>
+        <v>115973</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1694791443772238</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1410887165295807</v>
+        <v>0.1413461565626007</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.202785929362277</v>
+        <v>0.203907786264828</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>142</v>
@@ -2640,19 +2640,19 @@
         <v>148075</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>126230</v>
+        <v>128404</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>173389</v>
+        <v>174730</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1610724337916082</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1373099867862286</v>
+        <v>0.1396752972548989</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1886082148712707</v>
+        <v>0.1900667414030738</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>12595</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6294</v>
+        <v>7267</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21320</v>
+        <v>21892</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03592782177451335</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01795368441496356</v>
+        <v>0.02072953988724014</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0608182768812217</v>
+        <v>0.06244915577045661</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>33</v>
@@ -2690,19 +2690,19 @@
         <v>35124</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24710</v>
+        <v>24188</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>49294</v>
+        <v>48334</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0617566630905888</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04344610025737042</v>
+        <v>0.04252814149487212</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08667071845874018</v>
+        <v>0.08498187778698177</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>46</v>
@@ -2711,19 +2711,19 @@
         <v>47719</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34561</v>
+        <v>36937</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>64653</v>
+        <v>67199</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05190746652809872</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03759424687112004</v>
+        <v>0.04017891943004553</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07032825869463231</v>
+        <v>0.07309752906984367</v>
       </c>
     </row>
     <row r="32">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6326</v>
+        <v>6062</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005760189100524509</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01804540509215175</v>
+        <v>0.01729304923293368</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2761,19 +2761,19 @@
         <v>3219</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8930</v>
+        <v>8862</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005660262032103054</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00161338580367581</v>
+        <v>0.001626125409430343</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01570191950499071</v>
+        <v>0.01558165855458032</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2782,19 +2782,19 @@
         <v>5239</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11438</v>
+        <v>11554</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005698366774269082</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002073357363081086</v>
+        <v>0.002070115399098006</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01244229234557247</v>
+        <v>0.01256778582773053</v>
       </c>
     </row>
     <row r="33">
@@ -2886,19 +2886,19 @@
         <v>217308</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>202763</v>
+        <v>200352</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>231462</v>
+        <v>231727</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7287303611852476</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6799524508685041</v>
+        <v>0.6718680190140314</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7761959201319694</v>
+        <v>0.7770845011043009</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>695</v>
@@ -2907,19 +2907,19 @@
         <v>696126</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>661836</v>
+        <v>661560</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>730264</v>
+        <v>730966</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5574536169491839</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5299943391176453</v>
+        <v>0.5297739129066076</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5847912152372281</v>
+        <v>0.5853537197324606</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>917</v>
@@ -2928,19 +2928,19 @@
         <v>913433</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>875104</v>
+        <v>874811</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>952606</v>
+        <v>954411</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5904698595769075</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5656928661336444</v>
+        <v>0.5655032788921935</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6157924866758938</v>
+        <v>0.6169587726219746</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>62922</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>50125</v>
+        <v>50904</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>78144</v>
+        <v>78578</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.211005772460401</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1680915881187612</v>
+        <v>0.1707039811531892</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2620521689893116</v>
+        <v>0.2635057278900785</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>293</v>
@@ -2978,19 +2978,19 @@
         <v>294019</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>263342</v>
+        <v>265871</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>325323</v>
+        <v>323816</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2354490265608136</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2108824422951792</v>
+        <v>0.21290801650117</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2605166293711937</v>
+        <v>0.2593099753701934</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>358</v>
@@ -2999,19 +2999,19 @@
         <v>356941</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>326736</v>
+        <v>326456</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>391909</v>
+        <v>393516</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2307372111208959</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2112119297206247</v>
+        <v>0.2110309093458756</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2533413919343361</v>
+        <v>0.2543801532712614</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>13732</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8373</v>
+        <v>8143</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21881</v>
+        <v>21506</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04605020233395769</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02807672297250694</v>
+        <v>0.02730553950373466</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07337559819605388</v>
+        <v>0.07212003104959849</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>177</v>
@@ -3049,19 +3049,19 @@
         <v>181054</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>158749</v>
+        <v>158680</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>206347</v>
+        <v>206643</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1449867509232565</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1271252269628786</v>
+        <v>0.1270702048182438</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.165241851619304</v>
+        <v>0.1654788366729573</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>192</v>
@@ -3070,19 +3070,19 @@
         <v>194786</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>169617</v>
+        <v>167288</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>221427</v>
+        <v>220287</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1259152003310071</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1096456770471895</v>
+        <v>0.1081400708622938</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1431367275338874</v>
+        <v>0.1423998951716368</v>
       </c>
     </row>
     <row r="37">
@@ -3099,19 +3099,19 @@
         <v>4239</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10206</v>
+        <v>11503</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0142136640203937</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.004648781162574608</v>
+        <v>0.004633620090655119</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03422396384735571</v>
+        <v>0.03857421276773932</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>62</v>
@@ -3120,19 +3120,19 @@
         <v>65367</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50391</v>
+        <v>49636</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>82573</v>
+        <v>85344</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05234531791437369</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04035246878797633</v>
+        <v>0.03974834610369073</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06612388265065434</v>
+        <v>0.06834259772032468</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>66</v>
@@ -3141,19 +3141,19 @@
         <v>69605</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>54690</v>
+        <v>54392</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>88015</v>
+        <v>88506</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04499485161274409</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03535300451274551</v>
+        <v>0.03516065671418066</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05689568974226254</v>
+        <v>0.05721274451931906</v>
       </c>
     </row>
     <row r="38">
@@ -3183,19 +3183,19 @@
         <v>12195</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>6680</v>
+        <v>6220</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>21578</v>
+        <v>21737</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.009765287652372213</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.005349687132239287</v>
+        <v>0.004980607681138698</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01727918958401571</v>
+        <v>0.01740650016744469</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -3204,19 +3204,19 @@
         <v>12194</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6379</v>
+        <v>6273</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>21532</v>
+        <v>21351</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.007882877358445419</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004123696016479846</v>
+        <v>0.004054830894316908</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01391921637363921</v>
+        <v>0.01380181228294196</v>
       </c>
     </row>
     <row r="39">
@@ -3308,19 +3308,19 @@
         <v>1940834</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1878164</v>
+        <v>1884855</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1993650</v>
+        <v>1996933</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5936896657139656</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5745191673635319</v>
+        <v>0.5765657711203226</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6098454921542498</v>
+        <v>0.6108498780600623</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1847</v>
@@ -3329,19 +3329,19 @@
         <v>1881581</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1825910</v>
+        <v>1823370</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1937131</v>
+        <v>1936367</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5569900223126031</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5405100725431939</v>
+        <v>0.5397582678206992</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5734339074140091</v>
+        <v>0.5732076546866712</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3742</v>
@@ -3350,19 +3350,19 @@
         <v>3822416</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3740130</v>
+        <v>3728063</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3903355</v>
+        <v>3898441</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5750388959678416</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5626599693382248</v>
+        <v>0.5608445897128808</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5872152432743987</v>
+        <v>0.5864760528608023</v>
       </c>
     </row>
     <row r="41">
@@ -3379,19 +3379,19 @@
         <v>846731</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>798782</v>
+        <v>801035</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>897343</v>
+        <v>901364</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2590100073815137</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.244342773068805</v>
+        <v>0.2450318906252821</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2744918922822079</v>
+        <v>0.2757218957659792</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>858</v>
@@ -3400,19 +3400,19 @@
         <v>878047</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>826717</v>
+        <v>826760</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>925339</v>
+        <v>926564</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2599213898810206</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2447265336775409</v>
+        <v>0.2447394414021123</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2739208259980019</v>
+        <v>0.2742835476748491</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1696</v>
@@ -3421,19 +3421,19 @@
         <v>1724778</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1656844</v>
+        <v>1654868</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1794424</v>
+        <v>1800480</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2594731722401761</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2492532371115188</v>
+        <v>0.2489559570659367</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.269950657726142</v>
+        <v>0.2708616742659801</v>
       </c>
     </row>
     <row r="42">
@@ -3450,19 +3450,19 @@
         <v>381261</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>342808</v>
+        <v>347028</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>417156</v>
+        <v>418515</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.116625339126872</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1048627970989192</v>
+        <v>0.106153831814381</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1276055980987665</v>
+        <v>0.1280212176032916</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>433</v>
@@ -3471,19 +3471,19 @@
         <v>449729</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>413009</v>
+        <v>412990</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>494022</v>
+        <v>492157</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.133129760300347</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1222597467524513</v>
+        <v>0.1222542959391036</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1462413847741747</v>
+        <v>0.1456893402909347</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>810</v>
@@ -3492,19 +3492,19 @@
         <v>830989</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>777736</v>
+        <v>780813</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>883418</v>
+        <v>887563</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1250128909004161</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1170015129267381</v>
+        <v>0.117464375702825</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1329001067487512</v>
+        <v>0.1335237113736087</v>
       </c>
     </row>
     <row r="43">
@@ -3521,19 +3521,19 @@
         <v>89602</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>72430</v>
+        <v>71640</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>111484</v>
+        <v>111652</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02740879023463257</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02215587244342964</v>
+        <v>0.02191420465026559</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03410241966424452</v>
+        <v>0.0341537213241304</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>139</v>
@@ -3542,19 +3542,19 @@
         <v>148313</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>125972</v>
+        <v>125489</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>176658</v>
+        <v>173805</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04390383800138946</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0372906250494188</v>
+        <v>0.03714758186856548</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05229463049449069</v>
+        <v>0.05145022195169383</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>225</v>
@@ -3563,19 +3563,19 @@
         <v>237915</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>206738</v>
+        <v>208289</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>267473</v>
+        <v>270858</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03579157844008083</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03110132425265014</v>
+        <v>0.03133470936304839</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04023827244835172</v>
+        <v>0.04074743896287307</v>
       </c>
     </row>
     <row r="44">
@@ -3592,19 +3592,19 @@
         <v>10678</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4987</v>
+        <v>5386</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>18459</v>
+        <v>18878</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.003266197543016198</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001525613536351532</v>
+        <v>0.001647495470902559</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.005646641819056912</v>
+        <v>0.005774749295010167</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>19</v>
@@ -3613,19 +3613,19 @@
         <v>20455</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>12682</v>
+        <v>13199</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>31663</v>
+        <v>32069</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006054989504639822</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.00375412442508534</v>
+        <v>0.003907145410586347</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.009373061421289988</v>
+        <v>0.009493054007076656</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>29</v>
@@ -3634,19 +3634,19 @@
         <v>31132</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>21663</v>
+        <v>21754</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>44459</v>
+        <v>42418</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.004683462451485378</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003258954834962544</v>
+        <v>0.003272685995009523</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006688408654705414</v>
+        <v>0.006381334596831987</v>
       </c>
     </row>
     <row r="45">
@@ -3980,19 +3980,19 @@
         <v>288908</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>268354</v>
+        <v>268471</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>308730</v>
+        <v>311584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6623863897374044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6152605240715561</v>
+        <v>0.6155299488297303</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7078322954976657</v>
+        <v>0.7143744806287037</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -4001,19 +4001,19 @@
         <v>202786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>184222</v>
+        <v>183598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>219738</v>
+        <v>220399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6470493576034192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5878142972945838</v>
+        <v>0.5858251922046179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7011397417492434</v>
+        <v>0.7032476798133306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>449</v>
@@ -4022,19 +4022,19 @@
         <v>491694</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>463994</v>
+        <v>463661</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>518792</v>
+        <v>519134</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6559737977980766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6190184031358185</v>
+        <v>0.6185737035466636</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6921253170741034</v>
+        <v>0.69258107841228</v>
       </c>
     </row>
     <row r="5">
@@ -4051,19 +4051,19 @@
         <v>96939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77434</v>
+        <v>78317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115928</v>
+        <v>114121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2222534307804348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1775351076356366</v>
+        <v>0.1795593078703872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2657902839368935</v>
+        <v>0.2616473368464961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -4072,19 +4072,19 @@
         <v>72941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58064</v>
+        <v>59057</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88673</v>
+        <v>90868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2327411270108738</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1852690548842813</v>
+        <v>0.1884394511677007</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2829375641410845</v>
+        <v>0.2899410681790216</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -4093,19 +4093,19 @@
         <v>169880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146982</v>
+        <v>147781</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>196055</v>
+        <v>195233</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2266384588433549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1960901005809305</v>
+        <v>0.1971559777388134</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2615590542472773</v>
+        <v>0.2604614346745474</v>
       </c>
     </row>
     <row r="6">
@@ -4122,19 +4122,19 @@
         <v>38203</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27314</v>
+        <v>26707</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50946</v>
+        <v>51860</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08758983729141462</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0626233557918581</v>
+        <v>0.06123282012948137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1168057428405362</v>
+        <v>0.1188998614142861</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -4143,19 +4143,19 @@
         <v>28097</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18074</v>
+        <v>18335</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41044</v>
+        <v>41128</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08965294253586019</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05767120140586965</v>
+        <v>0.05850370521677355</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1309630016917539</v>
+        <v>0.131232542827893</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -4164,19 +4164,19 @@
         <v>66301</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52009</v>
+        <v>51078</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84823</v>
+        <v>84882</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08845244564646923</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0693856852568938</v>
+        <v>0.06814355914897627</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1131631801123878</v>
+        <v>0.1132420870060944</v>
       </c>
     </row>
     <row r="7">
@@ -4193,19 +4193,19 @@
         <v>11215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5983</v>
+        <v>5324</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22269</v>
+        <v>21159</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02571384085911811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01371703327827106</v>
+        <v>0.01220728901550851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05105757381191153</v>
+        <v>0.04851170783306456</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4214,19 +4214,19 @@
         <v>5595</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1888</v>
+        <v>1836</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13594</v>
+        <v>12805</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01785323972642487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0060246182977266</v>
+        <v>0.005858505241264539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04337446204808575</v>
+        <v>0.0408595674164609</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -4235,19 +4235,19 @@
         <v>16811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9758</v>
+        <v>9745</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27807</v>
+        <v>28897</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02242723188409458</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0130178314532756</v>
+        <v>0.01300110667899338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03709696651228032</v>
+        <v>0.03855184263617085</v>
       </c>
     </row>
     <row r="8">
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4520</v>
+        <v>4911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002056501331628042</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0103633863519381</v>
+        <v>0.01125912359395469</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4285,19 +4285,19 @@
         <v>3981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12674</v>
+        <v>12486</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01270333312342195</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003203563615416369</v>
+        <v>0.003218504658252219</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0404415315654271</v>
+        <v>0.03984074634177081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -4306,19 +4306,19 @@
         <v>4878</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1880</v>
+        <v>1090</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12518</v>
+        <v>13544</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006508065828004744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002508027260309574</v>
+        <v>0.001453603374481393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01670009782115854</v>
+        <v>0.01806921938221982</v>
       </c>
     </row>
     <row r="9">
@@ -4410,19 +4410,19 @@
         <v>268927</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>247254</v>
+        <v>245426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>289060</v>
+        <v>289302</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6441258245202495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5922156543898982</v>
+        <v>0.58783594900737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6923481742842172</v>
+        <v>0.6929261698743555</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -4431,19 +4431,19 @@
         <v>204843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>183679</v>
+        <v>184955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223242</v>
+        <v>222889</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6095088456515677</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5465344362388034</v>
+        <v>0.5503310047005295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6642536745462519</v>
+        <v>0.6632032434221006</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>430</v>
@@ -4452,19 +4452,19 @@
         <v>473770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>445437</v>
+        <v>445390</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>504740</v>
+        <v>502411</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6286875871674726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5910896674039544</v>
+        <v>0.5910278487111474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6697846593363271</v>
+        <v>0.6666935261436743</v>
       </c>
     </row>
     <row r="11">
@@ -4481,19 +4481,19 @@
         <v>113441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95336</v>
+        <v>93431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134541</v>
+        <v>133455</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2717115235301727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2283461866278019</v>
+        <v>0.223783825313468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3222473894009484</v>
+        <v>0.3196471188691872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>76</v>
@@ -4502,19 +4502,19 @@
         <v>84711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69158</v>
+        <v>67678</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103508</v>
+        <v>103136</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2520555583742669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2057775300498647</v>
+        <v>0.2013745882665359</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3079857721629676</v>
+        <v>0.3068795890352211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>174</v>
@@ -4523,19 +4523,19 @@
         <v>198152</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>172816</v>
+        <v>174246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>225882</v>
+        <v>224303</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2629454941020725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2293249989466407</v>
+        <v>0.2312229246292947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2997425392890999</v>
+        <v>0.2976475668130283</v>
       </c>
     </row>
     <row r="12">
@@ -4552,19 +4552,19 @@
         <v>32131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21440</v>
+        <v>22230</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45377</v>
+        <v>47573</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07696002005219815</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05135326331138151</v>
+        <v>0.05324371679468724</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.108686513124337</v>
+        <v>0.1139445303118782</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -4573,19 +4573,19 @@
         <v>29086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19208</v>
+        <v>19455</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42095</v>
+        <v>41306</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08654456654756454</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05715260825472251</v>
+        <v>0.05788690336292712</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1252524231854658</v>
+        <v>0.1229053806307974</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -4594,19 +4594,19 @@
         <v>61217</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>46836</v>
+        <v>46173</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>78915</v>
+        <v>79535</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08123446885015666</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06215118991253842</v>
+        <v>0.06127067498444052</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1047193572014398</v>
+        <v>0.1055419142763834</v>
       </c>
     </row>
     <row r="13">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6988</v>
+        <v>6595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004773760959831717</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01673663250502368</v>
+        <v>0.01579500959592269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -4644,19 +4644,19 @@
         <v>12374</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6364</v>
+        <v>6537</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21767</v>
+        <v>22060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03681940127252401</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01893501236545511</v>
+        <v>0.01945088342979016</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06476772199163686</v>
+        <v>0.06563828712477436</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -4665,19 +4665,19 @@
         <v>14367</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7965</v>
+        <v>8234</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25507</v>
+        <v>24515</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01906525078468875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01057006176296847</v>
+        <v>0.01092585501202032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03384691108629274</v>
+        <v>0.03253079504047898</v>
       </c>
     </row>
     <row r="14">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5019</v>
+        <v>5679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002428870937547997</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01202113949403897</v>
+        <v>0.01360255872494701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -4715,19 +4715,19 @@
         <v>5065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11865</v>
+        <v>11805</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01507162815407689</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005866997033969572</v>
+        <v>0.005897558136256156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03530525747555168</v>
+        <v>0.03512587434590219</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -4736,19 +4736,19 @@
         <v>6079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2165</v>
+        <v>2919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12169</v>
+        <v>13529</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008067199095609396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002873126028858454</v>
+        <v>0.003873618962196254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01614861769630952</v>
+        <v>0.01795224034241456</v>
       </c>
     </row>
     <row r="15">
@@ -4840,19 +4840,19 @@
         <v>391360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>365207</v>
+        <v>365195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>414662</v>
+        <v>417326</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6217831934142234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5802332032105524</v>
+        <v>0.5802137270849654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6588061061802762</v>
+        <v>0.6630379781390895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -4861,19 +4861,19 @@
         <v>153732</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139073</v>
+        <v>135700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169469</v>
+        <v>168240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5909855519575915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5346298992033717</v>
+        <v>0.5216628893752754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6514802033170006</v>
+        <v>0.6467560017955928</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>513</v>
@@ -4882,19 +4882,19 @@
         <v>545092</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>517545</v>
+        <v>518646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>576047</v>
+        <v>573673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6127770389481324</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5818094560006101</v>
+        <v>0.5830471439010521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6475761181228613</v>
+        <v>0.6449066846454063</v>
       </c>
     </row>
     <row r="17">
@@ -4911,19 +4911,19 @@
         <v>175203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154074</v>
+        <v>152272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200215</v>
+        <v>198839</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2783586479780821</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2447896243173234</v>
+        <v>0.2419264130402782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3180973689045496</v>
+        <v>0.315910932812806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -4932,19 +4932,19 @@
         <v>81338</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66968</v>
+        <v>67989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95465</v>
+        <v>98230</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3126830349963566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2574397071410835</v>
+        <v>0.2613675988644036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3669904854109787</v>
+        <v>0.3776191100963648</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>240</v>
@@ -4953,19 +4953,19 @@
         <v>256541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>227557</v>
+        <v>229774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>284345</v>
+        <v>283746</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2883961286687959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.25581314667429</v>
+        <v>0.258305837702046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3196521817842075</v>
+        <v>0.3189795844179711</v>
       </c>
     </row>
     <row r="18">
@@ -4982,19 +4982,19 @@
         <v>46054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34725</v>
+        <v>34477</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63119</v>
+        <v>61124</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07317004288494186</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05517067248983112</v>
+        <v>0.05477562051771871</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1002818166849013</v>
+        <v>0.09711178690759199</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -5003,19 +5003,19 @@
         <v>24103</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15731</v>
+        <v>15990</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35202</v>
+        <v>35495</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0926559609892546</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06047559941708099</v>
+        <v>0.06147134779049196</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1353261172029747</v>
+        <v>0.1364527635446598</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>66</v>
@@ -5024,19 +5024,19 @@
         <v>70157</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>55776</v>
+        <v>55018</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89973</v>
+        <v>88961</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07886831002686449</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06270170379173598</v>
+        <v>0.06184912809973801</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.101144766787951</v>
+        <v>0.1000075808821792</v>
       </c>
     </row>
     <row r="19">
@@ -5053,19 +5053,19 @@
         <v>13716</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7292</v>
+        <v>7234</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23552</v>
+        <v>23939</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02179087190932348</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01158539213594437</v>
+        <v>0.01149304731499672</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03741808553326133</v>
+        <v>0.03803428335976459</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5087,19 +5087,19 @@
         <v>13715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7326</v>
+        <v>7397</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23545</v>
+        <v>22675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0154185671131096</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008235487949978774</v>
+        <v>0.0083159977171752</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02646885488035667</v>
+        <v>0.02549111192947045</v>
       </c>
     </row>
     <row r="20">
@@ -5116,19 +5116,19 @@
         <v>3082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8351</v>
+        <v>8257</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004897243813429078</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00158235963107074</v>
+        <v>0.001570219219834656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01326795568567918</v>
+        <v>0.01311882626829571</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4875</v>
+        <v>5680</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003675452056797277</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01873999498569978</v>
+        <v>0.0218363515022666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5158,19 +5158,19 @@
         <v>4038</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9966</v>
+        <v>10030</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004539955243097561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001152966962945236</v>
+        <v>0.001163336665365602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01120360951716723</v>
+        <v>0.01127528792198125</v>
       </c>
     </row>
     <row r="21">
@@ -5262,19 +5262,19 @@
         <v>640803</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>601833</v>
+        <v>604438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>676101</v>
+        <v>675538</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5547671269981077</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5210299868623339</v>
+        <v>0.5232846450526077</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5853258966212241</v>
+        <v>0.5848384427001649</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>393</v>
@@ -5283,19 +5283,19 @@
         <v>415614</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>387981</v>
+        <v>387934</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>442467</v>
+        <v>444673</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5428495883413942</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5067569622295435</v>
+        <v>0.5066948728409817</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5779224494538784</v>
+        <v>0.5808043440043403</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>998</v>
@@ -5304,19 +5304,19 @@
         <v>1056416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1006670</v>
+        <v>1013641</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1101422</v>
+        <v>1101040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5500166421388939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5241165611440823</v>
+        <v>0.5277458861086369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5734485272393621</v>
+        <v>0.5732498446051187</v>
       </c>
     </row>
     <row r="23">
@@ -5333,19 +5333,19 @@
         <v>323834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>290286</v>
+        <v>292679</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>358402</v>
+        <v>359847</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2803557465375662</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2513111783612125</v>
+        <v>0.2533832515796748</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3102821736389805</v>
+        <v>0.3115331888714529</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>217</v>
@@ -5354,19 +5354,19 @@
         <v>236261</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>211239</v>
+        <v>210295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>261611</v>
+        <v>262110</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3085890250609398</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2759078519762793</v>
+        <v>0.2746739304129042</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3417006587276628</v>
+        <v>0.3423521325647824</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>511</v>
@@ -5375,19 +5375,19 @@
         <v>560095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>516503</v>
+        <v>520583</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>600696</v>
+        <v>603027</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2916098960741987</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2689141414671729</v>
+        <v>0.2710380676218312</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3127484584878237</v>
+        <v>0.3139620963614886</v>
       </c>
     </row>
     <row r="24">
@@ -5404,19 +5404,19 @@
         <v>141545</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>120621</v>
+        <v>118471</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>167085</v>
+        <v>164359</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1225408860435015</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1044264812323836</v>
+        <v>0.1025649318290881</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1446520737514656</v>
+        <v>0.1422914373792792</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -5425,19 +5425,19 @@
         <v>80001</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64433</v>
+        <v>62541</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>102007</v>
+        <v>99292</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1044917027667916</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08415834608348954</v>
+        <v>0.08168762965906694</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1332354858953116</v>
+        <v>0.129689601918763</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -5446,19 +5446,19 @@
         <v>221545</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>194603</v>
+        <v>195129</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>250246</v>
+        <v>249888</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1153462484302319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1013188608807363</v>
+        <v>0.1015928715722377</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1302890768189729</v>
+        <v>0.1301025329674106</v>
       </c>
     </row>
     <row r="25">
@@ -5475,19 +5475,19 @@
         <v>42036</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31125</v>
+        <v>30622</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57701</v>
+        <v>56202</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03639236771512285</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02694593850655164</v>
+        <v>0.0265105104683372</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04995373465947963</v>
+        <v>0.0486565877009833</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -5496,19 +5496,19 @@
         <v>21692</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14021</v>
+        <v>12921</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35220</v>
+        <v>33849</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0283331572035469</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01831332138518425</v>
+        <v>0.01687689214159737</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0460020429909801</v>
+        <v>0.04421196368032858</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -5517,19 +5517,19 @@
         <v>63729</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48806</v>
+        <v>48783</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82682</v>
+        <v>82887</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03317986229640612</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02541045111716055</v>
+        <v>0.02539863615379446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0430479028535526</v>
+        <v>0.04315437977641606</v>
       </c>
     </row>
     <row r="26">
@@ -5546,19 +5546,19 @@
         <v>6866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2915</v>
+        <v>2844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14478</v>
+        <v>13771</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005943872705701709</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0025238156582735</v>
+        <v>0.002461736377726253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01253443813095503</v>
+        <v>0.01192247850429185</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -5567,19 +5567,19 @@
         <v>12048</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6392</v>
+        <v>6119</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22127</v>
+        <v>22534</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01573652662732753</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008348484508701978</v>
+        <v>0.007992445884910441</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02890142562736493</v>
+        <v>0.02943255746240434</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -5588,19 +5588,19 @@
         <v>18914</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11953</v>
+        <v>11614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30778</v>
+        <v>31167</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009847351060269335</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006223195100767524</v>
+        <v>0.0060467760743734</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01602438113502802</v>
+        <v>0.01622681591472417</v>
       </c>
     </row>
     <row r="27">
@@ -5692,19 +5692,19 @@
         <v>266946</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>244139</v>
+        <v>243650</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>291895</v>
+        <v>292198</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5259678736069083</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4810319732828324</v>
+        <v>0.4800683835858112</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.575127026063496</v>
+        <v>0.5757231766406196</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>378</v>
@@ -5713,19 +5713,19 @@
         <v>409997</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>379921</v>
+        <v>381634</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>437284</v>
+        <v>436775</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5399601643320425</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.500350454747124</v>
+        <v>0.5026067240280169</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5758969661853145</v>
+        <v>0.5752263807314588</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>636</v>
@@ -5734,19 +5734,19 @@
         <v>676942</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>641714</v>
+        <v>640096</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>709630</v>
+        <v>712128</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5343544596898625</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5065464519032237</v>
+        <v>0.5052695729088781</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5601571724778791</v>
+        <v>0.5621292072662314</v>
       </c>
     </row>
     <row r="29">
@@ -5763,19 +5763,19 @@
         <v>167583</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>144330</v>
+        <v>145618</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>187390</v>
+        <v>191186</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.330192283578889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2843758360115278</v>
+        <v>0.2869134364194023</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3692184218866093</v>
+        <v>0.3766974281457423</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>229</v>
@@ -5784,19 +5784,19 @@
         <v>247928</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>220102</v>
+        <v>220284</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>274620</v>
+        <v>275643</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.326518417891681</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2898711328729143</v>
+        <v>0.290111475046917</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3616702990603398</v>
+        <v>0.3630179101591237</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>388</v>
@@ -5805,19 +5805,19 @@
         <v>415512</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>383570</v>
+        <v>380634</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>449897</v>
+        <v>454157</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3279902716675987</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3027765623937881</v>
+        <v>0.3004591813375043</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3551332048698335</v>
+        <v>0.3584956917871541</v>
       </c>
     </row>
     <row r="30">
@@ -5834,19 +5834,19 @@
         <v>60434</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45598</v>
+        <v>47342</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>76870</v>
+        <v>77644</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1190750390990705</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08984297035582176</v>
+        <v>0.09327848422635963</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1514574981301366</v>
+        <v>0.152983017620707</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>75</v>
@@ -5855,19 +5855,19 @@
         <v>80634</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65070</v>
+        <v>66096</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98333</v>
+        <v>100979</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1061935393481522</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08569640333196095</v>
+        <v>0.08704711570876053</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1295029820382196</v>
+        <v>0.1329882172381215</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>130</v>
@@ -5876,19 +5876,19 @@
         <v>141068</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>120524</v>
+        <v>118021</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>167174</v>
+        <v>164293</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1113542299291628</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09513779124083217</v>
+        <v>0.09316180996762956</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1319612479464696</v>
+        <v>0.1296871093024288</v>
       </c>
     </row>
     <row r="31">
@@ -5905,19 +5905,19 @@
         <v>9395</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4585</v>
+        <v>4399</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17202</v>
+        <v>17093</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01851062559044263</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009033931128889332</v>
+        <v>0.00866682009589438</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03389382892000933</v>
+        <v>0.03367945217111273</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -5926,19 +5926,19 @@
         <v>15424</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9156</v>
+        <v>8316</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>25662</v>
+        <v>23978</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0203126404205646</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01205856840441442</v>
+        <v>0.01095217378683538</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03379689194923034</v>
+        <v>0.03157865104693464</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -5947,19 +5947,19 @@
         <v>24818</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15620</v>
+        <v>16583</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36516</v>
+        <v>37860</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01959070266948954</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01232982408982007</v>
+        <v>0.01309003747630829</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02882482980138773</v>
+        <v>0.02988529429163983</v>
       </c>
     </row>
     <row r="32">
@@ -5976,19 +5976,19 @@
         <v>3174</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8500</v>
+        <v>8555</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006254178124689549</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001918039306126721</v>
+        <v>0.001912574153044937</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01674805985601428</v>
+        <v>0.01685516686172425</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -5997,19 +5997,19 @@
         <v>5327</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2041</v>
+        <v>2019</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11546</v>
+        <v>10883</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007015238007559774</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002688156101509638</v>
+        <v>0.002659353055932265</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01520623973067627</v>
+        <v>0.01433289263363123</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -6018,19 +6018,19 @@
         <v>8501</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4203</v>
+        <v>4110</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16416</v>
+        <v>16259</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006710336043886372</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003318003712976884</v>
+        <v>0.003244327470489376</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01295850681283663</v>
+        <v>0.0128341238286256</v>
       </c>
     </row>
     <row r="33">
@@ -6122,19 +6122,19 @@
         <v>185669</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>169471</v>
+        <v>170246</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>200742</v>
+        <v>199565</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6956959101127029</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6350039545233895</v>
+        <v>0.6379065528592471</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.752175412854674</v>
+        <v>0.7477661870938324</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>601</v>
@@ -6143,19 +6143,19 @@
         <v>639792</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>607943</v>
+        <v>604052</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>671187</v>
+        <v>672163</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5782862317125673</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5494993890345393</v>
+        <v>0.5459821923882964</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6066636569162001</v>
+        <v>0.6075453756851869</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>787</v>
@@ -6164,19 +6164,19 @@
         <v>825460</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>790474</v>
+        <v>790157</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>866475</v>
+        <v>863571</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6011041856738826</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5756272921561352</v>
+        <v>0.5753960698450641</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6309711351840431</v>
+        <v>0.6288566144893445</v>
       </c>
     </row>
     <row r="35">
@@ -6193,19 +6193,19 @@
         <v>59732</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46000</v>
+        <v>47704</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>74242</v>
+        <v>73749</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2238141874744872</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1723619759879477</v>
+        <v>0.1787446921122367</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2781837166186478</v>
+        <v>0.2763345413033699</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>295</v>
@@ -6214,19 +6214,19 @@
         <v>312999</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>283564</v>
+        <v>283413</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>343045</v>
+        <v>345247</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2829090553134468</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2563043485409579</v>
+        <v>0.2561677425889821</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3100672018548597</v>
+        <v>0.3120575967106345</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>355</v>
@@ -6235,19 +6235,19 @@
         <v>372731</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>338914</v>
+        <v>341522</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>406921</v>
+        <v>405930</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2714242783165802</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2467985381764763</v>
+        <v>0.2486981669148433</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2963221815181089</v>
+        <v>0.2955999342885452</v>
       </c>
     </row>
     <row r="36">
@@ -6264,19 +6264,19 @@
         <v>20550</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12163</v>
+        <v>11917</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31077</v>
+        <v>31911</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0769991387231828</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04557452629865825</v>
+        <v>0.0446524839882742</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1164437228768801</v>
+        <v>0.1195714966241594</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>117</v>
@@ -6285,19 +6285,19 @@
         <v>123728</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>103869</v>
+        <v>103156</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>147931</v>
+        <v>149019</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1118337455673606</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09388375146540308</v>
+        <v>0.09323894256032142</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1337101337852583</v>
+        <v>0.1346935735132688</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>135</v>
@@ -6306,19 +6306,19 @@
         <v>144278</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>121212</v>
+        <v>123658</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>167461</v>
+        <v>170030</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1050638227972626</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08826711416187645</v>
+        <v>0.09004829722026704</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.121945783997764</v>
+        <v>0.1238168573735382</v>
       </c>
     </row>
     <row r="37">
@@ -6348,19 +6348,19 @@
         <v>21759</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13548</v>
+        <v>14349</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>32315</v>
+        <v>32179</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01966751120647302</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01224561214889349</v>
+        <v>0.01296947101863795</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02920869202126073</v>
+        <v>0.02908570155647387</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -6369,19 +6369,19 @@
         <v>21759</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13577</v>
+        <v>13487</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32291</v>
+        <v>32139</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01584523376428872</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009887154366407754</v>
+        <v>0.009821581219895539</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02351423027893727</v>
+        <v>0.02340346765421152</v>
       </c>
     </row>
     <row r="38">
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4738</v>
+        <v>4662</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003490763689627029</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01775364205150614</v>
+        <v>0.01746888204094066</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -6419,19 +6419,19 @@
         <v>8080</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3972</v>
+        <v>3936</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16489</v>
+        <v>15988</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.007303456200152135</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003589940128243761</v>
+        <v>0.003557585720362517</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01490393076966795</v>
+        <v>0.01445073119375893</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -6440,19 +6440,19 @@
         <v>9012</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4798</v>
+        <v>3994</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>17176</v>
+        <v>16338</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.006562479447985913</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003494257614704342</v>
+        <v>0.002908451724395053</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01250782928256431</v>
+        <v>0.01189723865645812</v>
       </c>
     </row>
     <row r="39">
@@ -6544,19 +6544,19 @@
         <v>2042611</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1984906</v>
+        <v>1985831</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2097186</v>
+        <v>2101844</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5985530562854672</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5816435249448102</v>
+        <v>0.581914635187997</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6145451982022644</v>
+        <v>0.6159101808794848</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1885</v>
@@ -6565,19 +6565,19 @@
         <v>2026765</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1962216</v>
+        <v>1970104</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2084868</v>
+        <v>2086173</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5723880076565139</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5541585158374157</v>
+        <v>0.5563861852029103</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5887972013586307</v>
+        <v>0.5891659050152197</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3813</v>
@@ -6586,19 +6586,19 @@
         <v>4069376</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3983156</v>
+        <v>3986673</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4153362</v>
+        <v>4154904</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5852291246198765</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5728295475212108</v>
+        <v>0.5733353264314937</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.597307345328297</v>
+        <v>0.5975291167024571</v>
       </c>
     </row>
     <row r="41">
@@ -6615,19 +6615,19 @@
         <v>936733</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>887235</v>
+        <v>883491</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>993028</v>
+        <v>992922</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2744938038343244</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2599893650041089</v>
+        <v>0.2588922644303896</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2909901769625641</v>
+        <v>0.2909592042859354</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>962</v>
@@ -6636,19 +6636,19 @@
         <v>1036178</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>987050</v>
+        <v>977882</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1098533</v>
+        <v>1088559</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2926317848533674</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2787573596668248</v>
+        <v>0.2761682440287603</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3102419244555233</v>
+        <v>0.3074248862522802</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1826</v>
@@ -6657,19 +6657,19 @@
         <v>1972910</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1898106</v>
+        <v>1894395</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2053418</v>
+        <v>2050701</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2837301413270087</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.272972225792141</v>
+        <v>0.2724386518272165</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2953081439271131</v>
+        <v>0.2949173898920501</v>
       </c>
     </row>
     <row r="42">
@@ -6686,19 +6686,19 @@
         <v>338918</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>306203</v>
+        <v>305277</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>377498</v>
+        <v>375457</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09931427819962525</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0897276875227902</v>
+        <v>0.08945634840932122</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1106194102180997</v>
+        <v>0.1100212660672368</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>333</v>
@@ -6707,19 +6707,19 @@
         <v>365648</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>330678</v>
+        <v>327106</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>405040</v>
+        <v>402882</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1032643786562782</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09338817638500956</v>
+        <v>0.09237938860295097</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.114389283429168</v>
+        <v>0.1137797039109041</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>649</v>
@@ -6728,19 +6728,19 @@
         <v>704566</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>655736</v>
+        <v>650142</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>759538</v>
+        <v>751224</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1013257733549762</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09430329628119032</v>
+        <v>0.0934988481893762</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1092314360611837</v>
+        <v>0.1080358064547876</v>
       </c>
     </row>
     <row r="43">
@@ -6757,19 +6757,19 @@
         <v>78355</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>62355</v>
+        <v>61059</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>97952</v>
+        <v>97795</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02296060771809233</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01827216502304178</v>
+        <v>0.01789218376856607</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02870305020312968</v>
+        <v>0.02865707179582756</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>70</v>
@@ -6778,19 +6778,19 @@
         <v>76845</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>61834</v>
+        <v>60814</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>97783</v>
+        <v>97535</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02170205540866741</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01746284891807772</v>
+        <v>0.01717477734295669</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0276153481787014</v>
+        <v>0.02754530534460157</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>142</v>
@@ -6799,19 +6799,19 @@
         <v>155200</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>131064</v>
+        <v>130691</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>183334</v>
+        <v>181171</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0223197197455092</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01884870947188385</v>
+        <v>0.0187950152090758</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02636577848514451</v>
+        <v>0.02605475068067903</v>
       </c>
     </row>
     <row r="44">
@@ -6828,19 +6828,19 @@
         <v>15965</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9069</v>
+        <v>9279</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>25188</v>
+        <v>25499</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004678253962490842</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002657652096522865</v>
+        <v>0.002719092546520987</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.007381067803480721</v>
+        <v>0.007472036570219116</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>32</v>
@@ -6849,19 +6849,19 @@
         <v>35458</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>24481</v>
+        <v>24235</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>50585</v>
+        <v>49665</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0100137734251731</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006913756055066087</v>
+        <v>0.00684443975022447</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01428608318975402</v>
+        <v>0.01402622392515153</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>48</v>
@@ -6870,19 +6870,19 @@
         <v>51423</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>37747</v>
+        <v>37558</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>67136</v>
+        <v>66126</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.007395240952629343</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.005428576144363749</v>
+        <v>0.005401385573466867</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.009655086591577669</v>
+        <v>0.009509752438841012</v>
       </c>
     </row>
     <row r="45">
@@ -7216,19 +7216,19 @@
         <v>233975</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215132</v>
+        <v>212898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>254713</v>
+        <v>256065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5463815262031434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5023778930577842</v>
+        <v>0.4971611340383769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5948079160749132</v>
+        <v>0.597965988174315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -7237,19 +7237,19 @@
         <v>185898</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>167113</v>
+        <v>166462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>205950</v>
+        <v>204516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5370892399312728</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4828178344252763</v>
+        <v>0.4809368729747406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5950230641272922</v>
+        <v>0.5908814073845363</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>395</v>
@@ -7258,19 +7258,19 @@
         <v>419873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>393038</v>
+        <v>386954</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>447553</v>
+        <v>447668</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5422280278325124</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5075730329903226</v>
+        <v>0.4997153823986069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.577973813801636</v>
+        <v>0.578122222558144</v>
       </c>
     </row>
     <row r="5">
@@ -7287,19 +7287,19 @@
         <v>147180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126926</v>
+        <v>127623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167488</v>
+        <v>168188</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3436971383551703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2963996837577484</v>
+        <v>0.2980272752540106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3911203585963702</v>
+        <v>0.3927532108517677</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -7308,19 +7308,19 @@
         <v>121187</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103816</v>
+        <v>103762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139343</v>
+        <v>139366</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3501289384632888</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2999417450658544</v>
+        <v>0.2997864885529619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4025832172836337</v>
+        <v>0.4026513086030425</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -7329,19 +7329,19 @@
         <v>268367</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>241260</v>
+        <v>242271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>293392</v>
+        <v>297303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.346572046691794</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3115659493864251</v>
+        <v>0.3128708989243393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3788891264267331</v>
+        <v>0.3839400154928544</v>
       </c>
     </row>
     <row r="6">
@@ -7358,19 +7358,19 @@
         <v>39885</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28882</v>
+        <v>27759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54780</v>
+        <v>53527</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09313905657365841</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06744465710582213</v>
+        <v>0.0648237209485383</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1279238977650669</v>
+        <v>0.1249962848794638</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -7379,19 +7379,19 @@
         <v>30400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20855</v>
+        <v>21048</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42410</v>
+        <v>42221</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08783193738845917</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06025384148098085</v>
+        <v>0.06081249416431193</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1225282239741219</v>
+        <v>0.1219846022474289</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -7400,19 +7400,19 @@
         <v>70285</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53911</v>
+        <v>55879</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>89124</v>
+        <v>91406</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09076686201964451</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06962081909633978</v>
+        <v>0.07216315548141859</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1150951943344682</v>
+        <v>0.1180419814624366</v>
       </c>
     </row>
     <row r="7">
@@ -7429,19 +7429,19 @@
         <v>6182</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2113</v>
+        <v>2897</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12712</v>
+        <v>12912</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0144366984724092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004933335791826567</v>
+        <v>0.00676414537293705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0296842505762856</v>
+        <v>0.03015195867513012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -7450,19 +7450,19 @@
         <v>8636</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4159</v>
+        <v>4242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16349</v>
+        <v>16307</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02494988421697924</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01201537572886956</v>
+        <v>0.01225460207959753</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0472351424813062</v>
+        <v>0.04711395957042096</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -7471,19 +7471,19 @@
         <v>14818</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8575</v>
+        <v>8414</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24563</v>
+        <v>24906</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0191359187269981</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01107354916046709</v>
+        <v>0.01086654798261413</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03172146226171074</v>
+        <v>0.0321633024829663</v>
       </c>
     </row>
     <row r="8">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5024</v>
+        <v>5302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002345580395618717</v>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01173185502931633</v>
+        <v>0.01238020615470003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6522</v>
+        <v>5801</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001297144729051037</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008422659730715348</v>
+        <v>0.007491422201709723</v>
       </c>
     </row>
     <row r="9">
@@ -7638,19 +7638,19 @@
         <v>204838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>184342</v>
+        <v>185503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223846</v>
+        <v>223726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5450273670086446</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4904936540255963</v>
+        <v>0.4935813406561241</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5956039456419588</v>
+        <v>0.5952856725479828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -7659,19 +7659,19 @@
         <v>205916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>185926</v>
+        <v>188270</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224126</v>
+        <v>225859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5560696269555911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5020867121534258</v>
+        <v>0.5084160158681394</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6052437045234454</v>
+        <v>0.6099229012544176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>386</v>
@@ -7680,19 +7680,19 @@
         <v>410754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>381492</v>
+        <v>383551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>437934</v>
+        <v>440157</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5505076286047013</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5112897535479728</v>
+        <v>0.514049316348568</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5869357320460478</v>
+        <v>0.5899151191880264</v>
       </c>
     </row>
     <row r="11">
@@ -7709,19 +7709,19 @@
         <v>121108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104454</v>
+        <v>104124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141348</v>
+        <v>139719</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3222403318048764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2779296022940313</v>
+        <v>0.2770499431595077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3760958392562844</v>
+        <v>0.3717621592063829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -7730,19 +7730,19 @@
         <v>122841</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103784</v>
+        <v>104706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>141140</v>
+        <v>141999</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3317282005564438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2802656073128966</v>
+        <v>0.2827546625219155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3811440072385245</v>
+        <v>0.383462085667168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>230</v>
@@ -7751,19 +7751,19 @@
         <v>243949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>218949</v>
+        <v>216767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272654</v>
+        <v>268284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3269491507420739</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.293443602146216</v>
+        <v>0.2905183687434605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3654206612796265</v>
+        <v>0.3595642075213418</v>
       </c>
     </row>
     <row r="12">
@@ -7780,19 +7780,19 @@
         <v>42423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31444</v>
+        <v>31570</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56237</v>
+        <v>56538</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1128787064005246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08366421963860265</v>
+        <v>0.08400129497458166</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1496329669036357</v>
+        <v>0.150435965674929</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -7801,19 +7801,19 @@
         <v>39488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27911</v>
+        <v>28880</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52214</v>
+        <v>52003</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1066362724980363</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07537130375905049</v>
+        <v>0.0779897574511601</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1410007542482851</v>
+        <v>0.1404330179864725</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -7822,19 +7822,19 @@
         <v>81911</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>65689</v>
+        <v>63406</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>99916</v>
+        <v>100213</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1097805932474116</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08803872837296278</v>
+        <v>0.08497896856562004</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1339108901988916</v>
+        <v>0.1343095913055175</v>
       </c>
     </row>
     <row r="13">
@@ -7851,19 +7851,19 @@
         <v>5276</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2066</v>
+        <v>2086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11926</v>
+        <v>12391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01403801497135156</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005498079718560948</v>
+        <v>0.005549394932241743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03173140341488173</v>
+        <v>0.03296896686112216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5230</v>
+        <v>5179</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00280612197847695</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01412235684959641</v>
+        <v>0.01398578539250577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -7893,19 +7893,19 @@
         <v>6315</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2109</v>
+        <v>2912</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12662</v>
+        <v>12805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00846363870094969</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002825970078357057</v>
+        <v>0.003903324393619012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01696994465236765</v>
+        <v>0.01716204035681887</v>
       </c>
     </row>
     <row r="14">
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6806</v>
+        <v>7897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005815579814602729</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01810989944159688</v>
+        <v>0.0210109970818452</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5890</v>
+        <v>5164</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002759778011451865</v>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01590482528923201</v>
+        <v>0.01394392009863167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -7964,19 +7964,19 @@
         <v>3208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9411</v>
+        <v>8796</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004298988704863548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001324349220637157</v>
+        <v>0.001338026388452712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01261330019865461</v>
+        <v>0.01178894392746073</v>
       </c>
     </row>
     <row r="15">
@@ -8068,19 +8068,19 @@
         <v>240199</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>216818</v>
+        <v>219718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>263665</v>
+        <v>266373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4602270778212399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4154293570238656</v>
+        <v>0.420985817594262</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5051885890349196</v>
+        <v>0.5103778822286091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -8089,19 +8089,19 @@
         <v>82770</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68548</v>
+        <v>69390</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95270</v>
+        <v>96592</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5029234149280322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4165093928133864</v>
+        <v>0.4216247156661347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5788722248837328</v>
+        <v>0.5869073017343004</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>311</v>
@@ -8110,19 +8110,19 @@
         <v>322969</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298057</v>
+        <v>296179</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>352600</v>
+        <v>346896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4704630238983905</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4341743824562723</v>
+        <v>0.4314381988771223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5136262054142339</v>
+        <v>0.505317282828466</v>
       </c>
     </row>
     <row r="17">
@@ -8139,19 +8139,19 @@
         <v>181832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161193</v>
+        <v>158364</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203350</v>
+        <v>202937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3483951975304135</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3088487887338391</v>
+        <v>0.3034301080934397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3896228487041609</v>
+        <v>0.3888322667320718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -8160,19 +8160,19 @@
         <v>47985</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36839</v>
+        <v>37295</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60550</v>
+        <v>61102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2915612383772072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2238380974566068</v>
+        <v>0.2266091858310759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.367910603629338</v>
+        <v>0.3712650314178959</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -8181,19 +8181,19 @@
         <v>229817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>204846</v>
+        <v>206846</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>256015</v>
+        <v>256181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3347699223741835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2983946829699491</v>
+        <v>0.3013079666043838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3729321134983589</v>
+        <v>0.3731733519631067</v>
       </c>
     </row>
     <row r="18">
@@ -8210,19 +8210,19 @@
         <v>70186</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56085</v>
+        <v>55534</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87617</v>
+        <v>87156</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1344779113888707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1074603147197291</v>
+        <v>0.1064045627175024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1678765448242518</v>
+        <v>0.1669927705324018</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -8231,19 +8231,19 @@
         <v>25728</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17366</v>
+        <v>17131</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38750</v>
+        <v>37889</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.15632982132302</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1055184260497666</v>
+        <v>0.1040920563234719</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2354510186694497</v>
+        <v>0.230219497196128</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>89</v>
@@ -8252,19 +8252,19 @@
         <v>95914</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>79380</v>
+        <v>77156</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>116811</v>
+        <v>114448</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1397166505155842</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1156316002126956</v>
+        <v>0.1123918297494956</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1701559722279499</v>
+        <v>0.1667145257498642</v>
       </c>
     </row>
     <row r="19">
@@ -8281,19 +8281,19 @@
         <v>26894</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16773</v>
+        <v>18313</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39964</v>
+        <v>40862</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05152938651995116</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03213842349146771</v>
+        <v>0.03508791553516518</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07657162676577542</v>
+        <v>0.0782935056523477</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -8302,19 +8302,19 @@
         <v>5655</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2197</v>
+        <v>2221</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12091</v>
+        <v>12725</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03436248140729813</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01335118259504118</v>
+        <v>0.01349331687284176</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07346786523959867</v>
+        <v>0.07731697925878503</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -8323,19 +8323,19 @@
         <v>32549</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22656</v>
+        <v>22037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47314</v>
+        <v>44932</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0474138223532835</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0330025155403713</v>
+        <v>0.03210027372652489</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06892113773601631</v>
+        <v>0.06545221875338637</v>
       </c>
     </row>
     <row r="20">
@@ -8352,19 +8352,19 @@
         <v>2803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7551</v>
+        <v>7434</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005370426739524811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001582434827246249</v>
+        <v>0.001570411155721821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01446813958696912</v>
+        <v>0.01424295244563017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8575</v>
+        <v>7719</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01482304396444249</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05210300472895417</v>
+        <v>0.04689884549778724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -8394,19 +8394,19 @@
         <v>5242</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1924</v>
+        <v>1861</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12406</v>
+        <v>12389</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007636580858558356</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00280218587756067</v>
+        <v>0.002710176740531292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01807161494429039</v>
+        <v>0.01804709410157111</v>
       </c>
     </row>
     <row r="21">
@@ -8498,19 +8498,19 @@
         <v>527210</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>492097</v>
+        <v>489726</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>558612</v>
+        <v>561298</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4590051980661857</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4284346172985493</v>
+        <v>0.4263704054515727</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4863454196134711</v>
+        <v>0.488683489479039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>419</v>
@@ -8519,19 +8519,19 @@
         <v>430691</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>404412</v>
+        <v>399489</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>461437</v>
+        <v>460007</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5214959960885268</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4896760753648145</v>
+        <v>0.4837149878586007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.558724361448803</v>
+        <v>0.5569933600247484</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>927</v>
@@ -8540,19 +8540,19 @@
         <v>957901</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>911349</v>
+        <v>913181</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>999532</v>
+        <v>1002666</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4851437074218439</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4615666267778684</v>
+        <v>0.4624949267018354</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5062285924393509</v>
+        <v>0.5078157354705611</v>
       </c>
     </row>
     <row r="23">
@@ -8569,19 +8569,19 @@
         <v>432814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>401142</v>
+        <v>399618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>467527</v>
+        <v>470054</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3768216246877024</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3492467234057389</v>
+        <v>0.3479197672906164</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4070437337722272</v>
+        <v>0.409243230607187</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>262</v>
@@ -8590,19 +8590,19 @@
         <v>271915</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>247547</v>
+        <v>246412</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>299202</v>
+        <v>301323</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3292439623674918</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.299739107615375</v>
+        <v>0.298364098392132</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3622846291187937</v>
+        <v>0.364852648801839</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>677</v>
@@ -8611,19 +8611,19 @@
         <v>704729</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>664598</v>
+        <v>664222</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>748176</v>
+        <v>750854</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3569209479315412</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.336596005534048</v>
+        <v>0.3364054875009282</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3789251195932424</v>
+        <v>0.3802817354092926</v>
       </c>
     </row>
     <row r="24">
@@ -8640,19 +8640,19 @@
         <v>165096</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>140952</v>
+        <v>139520</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>190261</v>
+        <v>190577</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1437376248289496</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1227172414366707</v>
+        <v>0.1214700265729617</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1656472115818356</v>
+        <v>0.1659225222924746</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>95</v>
@@ -8661,19 +8661,19 @@
         <v>98129</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>80161</v>
+        <v>80068</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>116307</v>
+        <v>117389</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1188175702125382</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09706217978207519</v>
+        <v>0.09694935348917783</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.140828758169394</v>
+        <v>0.1421391315753281</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>250</v>
@@ -8682,19 +8682,19 @@
         <v>263224</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>233666</v>
+        <v>235352</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>295835</v>
+        <v>300428</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.133314120867587</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1183437878028432</v>
+        <v>0.1191974652255171</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.149830290757281</v>
+        <v>0.1521561838484387</v>
       </c>
     </row>
     <row r="25">
@@ -8711,19 +8711,19 @@
         <v>17135</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10371</v>
+        <v>10918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27220</v>
+        <v>27670</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01491849087301752</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009029310266371183</v>
+        <v>0.009505853588455484</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02369857495233656</v>
+        <v>0.02409053195357961</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -8732,19 +8732,19 @@
         <v>19715</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12002</v>
+        <v>11441</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30588</v>
+        <v>32152</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02387142070676782</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01453244878341962</v>
+        <v>0.01385261445844394</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03703735326279483</v>
+        <v>0.0389310184229629</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -8753,19 +8753,19 @@
         <v>36850</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26100</v>
+        <v>25638</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51932</v>
+        <v>51567</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01866330207124178</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01321852286874814</v>
+        <v>0.01298491697734589</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02630194834746731</v>
+        <v>0.02611665774955024</v>
       </c>
     </row>
     <row r="26">
@@ -8782,19 +8782,19 @@
         <v>6337</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2298</v>
+        <v>2886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12924</v>
+        <v>13816</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005517061544144783</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002000521590882715</v>
+        <v>0.002512842992752605</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01125219983419532</v>
+        <v>0.01202853209888828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -8803,19 +8803,19 @@
         <v>5427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11910</v>
+        <v>12005</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006571050624675301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002520856751418119</v>
+        <v>0.00252234902243732</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01442152507815326</v>
+        <v>0.0145362200118365</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -8824,19 +8824,19 @@
         <v>11764</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6068</v>
+        <v>6171</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20410</v>
+        <v>21237</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005957921707786144</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003073289774784835</v>
+        <v>0.003125300474557865</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01033719637259145</v>
+        <v>0.01075588499118793</v>
       </c>
     </row>
     <row r="27">
@@ -8928,19 +8928,19 @@
         <v>280312</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>253990</v>
+        <v>255784</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>303372</v>
+        <v>307189</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4523736731715898</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4098949702160311</v>
+        <v>0.4127897521397166</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4895885720920162</v>
+        <v>0.4957488140932061</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>338</v>
@@ -8949,19 +8949,19 @@
         <v>354368</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>328517</v>
+        <v>324663</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>383433</v>
+        <v>382165</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4800150808279106</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4449983812645368</v>
+        <v>0.4397779771472078</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5193846349057271</v>
+        <v>0.5176671320204087</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>606</v>
@@ -8970,19 +8970,19 @@
         <v>634681</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>597178</v>
+        <v>594739</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>674138</v>
+        <v>669936</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4674014618302121</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4397834522410234</v>
+        <v>0.4379866861181844</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4964591796596378</v>
+        <v>0.49336507255277</v>
       </c>
     </row>
     <row r="29">
@@ -8999,19 +8999,19 @@
         <v>220945</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>197217</v>
+        <v>197481</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>244198</v>
+        <v>244596</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3565666543551972</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3182735444109243</v>
+        <v>0.3186999555444996</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3940921017944486</v>
+        <v>0.3947337892423273</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>237</v>
@@ -9020,19 +9020,19 @@
         <v>252347</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>227745</v>
+        <v>226860</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>279665</v>
+        <v>281334</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3418210495613161</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3084957494068573</v>
+        <v>0.3072971061988473</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3788246900286348</v>
+        <v>0.3810850238492853</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>451</v>
@@ -9041,19 +9041,19 @@
         <v>473293</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>437226</v>
+        <v>441071</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>507265</v>
+        <v>511061</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3485499196345492</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.321988576235084</v>
+        <v>0.3248200583897036</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3735682751381174</v>
+        <v>0.3763632693462926</v>
       </c>
     </row>
     <row r="30">
@@ -9070,19 +9070,19 @@
         <v>94155</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76875</v>
+        <v>79033</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>113100</v>
+        <v>114077</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1519495040588707</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.124063036843757</v>
+        <v>0.1275446255468488</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1825235847440104</v>
+        <v>0.1840993631171319</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>100</v>
@@ -9091,19 +9091,19 @@
         <v>105365</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>85355</v>
+        <v>87476</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>123545</v>
+        <v>127539</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1427233056035252</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1156186982617102</v>
+        <v>0.1184919014468214</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1673496215592871</v>
+        <v>0.1727605023141052</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>190</v>
@@ -9112,19 +9112,19 @@
         <v>199520</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>175179</v>
+        <v>175947</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>227243</v>
+        <v>228589</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1469335018988745</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1290080315588079</v>
+        <v>0.129573423972945</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1673495986692146</v>
+        <v>0.1683409604627406</v>
       </c>
     </row>
     <row r="31">
@@ -9141,19 +9141,19 @@
         <v>20835</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13093</v>
+        <v>12802</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30488</v>
+        <v>30815</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0336244092995252</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02112944581877848</v>
+        <v>0.02065966736786503</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04920213788692556</v>
+        <v>0.04973039648009711</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -9162,19 +9162,19 @@
         <v>19097</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11404</v>
+        <v>11697</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28529</v>
+        <v>30223</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02586812118432989</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01544786263195628</v>
+        <v>0.01584397250823898</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03864436429247901</v>
+        <v>0.04093837885478886</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -9183,19 +9183,19 @@
         <v>39932</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>29329</v>
+        <v>28795</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>53195</v>
+        <v>54320</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02940755247299216</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02159876432385689</v>
+        <v>0.02120598873631498</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03917447050017216</v>
+        <v>0.04000340761433159</v>
       </c>
     </row>
     <row r="32">
@@ -9212,19 +9212,19 @@
         <v>3399</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10314</v>
+        <v>9796</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005485759114817046</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00156126864725099</v>
+        <v>0.001574587862393031</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01664479761325528</v>
+        <v>0.01580898448952174</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -9233,19 +9233,19 @@
         <v>7067</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3067</v>
+        <v>2945</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14722</v>
+        <v>15176</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009572442822918227</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004154324210502772</v>
+        <v>0.003988928991668815</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01994248656953048</v>
+        <v>0.02055654079199639</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -9254,19 +9254,19 @@
         <v>10466</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5099</v>
+        <v>4358</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19835</v>
+        <v>19333</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007707564163372017</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003754913782614062</v>
+        <v>0.003209631942559776</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01460712172182723</v>
+        <v>0.01423785757530349</v>
       </c>
     </row>
     <row r="33">
@@ -9358,19 +9358,19 @@
         <v>159453</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>141976</v>
+        <v>142220</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>176480</v>
+        <v>175994</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5553051730297197</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4944402534362994</v>
+        <v>0.4952897722339575</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6146009674533208</v>
+        <v>0.6129104167692483</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>469</v>
@@ -9379,19 +9379,19 @@
         <v>500594</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>468620</v>
+        <v>470881</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>534878</v>
+        <v>541657</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4635888129127492</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4339781460732601</v>
+        <v>0.4360721141456846</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4953377755512429</v>
+        <v>0.5016161351195279</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>620</v>
@@ -9400,19 +9400,19 @@
         <v>660048</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>619977</v>
+        <v>623632</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>697057</v>
+        <v>698649</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4828547171559046</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4535409367926848</v>
+        <v>0.4562151328534725</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5099284088004358</v>
+        <v>0.5110929227385573</v>
       </c>
     </row>
     <row r="35">
@@ -9429,19 +9429,19 @@
         <v>99375</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81664</v>
+        <v>85249</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>114840</v>
+        <v>116759</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3460784642328547</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2843992441800242</v>
+        <v>0.2968850260812705</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3999359062618942</v>
+        <v>0.4066189030201404</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>372</v>
@@ -9450,19 +9450,19 @@
         <v>409329</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>373305</v>
+        <v>375730</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>439395</v>
+        <v>443878</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3790704279054555</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3457094968187513</v>
+        <v>0.3479545695638678</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4069139227087441</v>
+        <v>0.4110654130372565</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>466</v>
@@ -9471,19 +9471,19 @@
         <v>508704</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>473871</v>
+        <v>470585</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>548683</v>
+        <v>547913</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.372140148377361</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.346657822132741</v>
+        <v>0.3442541925932256</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4013865147059523</v>
+        <v>0.4008229594150511</v>
       </c>
     </row>
     <row r="36">
@@ -9500,19 +9500,19 @@
         <v>22492</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14665</v>
+        <v>13772</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>33018</v>
+        <v>31796</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07832889553323195</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05107204262471084</v>
+        <v>0.04796187765616401</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1149889324042181</v>
+        <v>0.1107304492498553</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>127</v>
@@ -9521,19 +9521,19 @@
         <v>144594</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>121594</v>
+        <v>121860</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>168485</v>
+        <v>169436</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1339047597929682</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1126051998453227</v>
+        <v>0.1128513906727167</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1560302444890339</v>
+        <v>0.1569107590399718</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>149</v>
@@ -9542,19 +9542,19 @@
         <v>167085</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>143527</v>
+        <v>143562</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>194909</v>
+        <v>192213</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1222305145689631</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1049966823439586</v>
+        <v>0.10502189249393</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1425847088104077</v>
+        <v>0.1406125248769766</v>
       </c>
     </row>
     <row r="37">
@@ -9571,19 +9571,19 @@
         <v>4548</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>11317</v>
+        <v>11470</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01583895372539789</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003835455262524803</v>
+        <v>0.003801797019044345</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03941292314929194</v>
+        <v>0.03994330559394402</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>16</v>
@@ -9592,19 +9592,19 @@
         <v>18427</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10508</v>
+        <v>10663</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>28602</v>
+        <v>29014</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01706495498186568</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009731071240051993</v>
+        <v>0.00987509114523054</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02648728146576842</v>
+        <v>0.02686954245334531</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -9613,19 +9613,19 @@
         <v>22975</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14465</v>
+        <v>14140</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>33619</v>
+        <v>35088</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01680742161727323</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01058202192826657</v>
+        <v>0.01034415208853121</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02459371883370069</v>
+        <v>0.02566880125502319</v>
       </c>
     </row>
     <row r="38">
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7629</v>
+        <v>5388</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.004448513478795746</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02656825534076105</v>
+        <v>0.01876464695208985</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -9663,19 +9663,19 @@
         <v>6880</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2337</v>
+        <v>2328</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14298</v>
+        <v>13520</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.006371044406961381</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002164497268995947</v>
+        <v>0.002155548411788377</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01324099775166192</v>
+        <v>0.01252016371913249</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7</v>
@@ -9684,19 +9684,19 @@
         <v>8157</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3631</v>
+        <v>3241</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15940</v>
+        <v>15945</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005967198280498168</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002656590157945829</v>
+        <v>0.002370593416447968</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0116606878112333</v>
+        <v>0.01166436481244784</v>
       </c>
     </row>
     <row r="39">
@@ -9788,19 +9788,19 @@
         <v>1645987</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1588432</v>
+        <v>1588749</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1703150</v>
+        <v>1702344</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4867831751625538</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4697618907440399</v>
+        <v>0.4698558685230146</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.503688738418723</v>
+        <v>0.5034502083277743</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1675</v>
@@ -9809,19 +9809,19 @@
         <v>1760238</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1699531</v>
+        <v>1699456</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1817738</v>
+        <v>1820685</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4993653936194904</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4821432894406089</v>
+        <v>0.48212207232001</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5156775338460559</v>
+        <v>0.5165137218911828</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3245</v>
@@ -9830,19 +9830,19 @@
         <v>3406225</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3319133</v>
+        <v>3317478</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3491253</v>
+        <v>3483734</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4932050887394779</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4805945579494723</v>
+        <v>0.4803550248016642</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5055168288299788</v>
+        <v>0.5044279978016675</v>
       </c>
     </row>
     <row r="41">
@@ -9859,19 +9859,19 @@
         <v>1203255</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1142955</v>
+        <v>1145148</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1255783</v>
+        <v>1255132</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3558498780851809</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3380169880504545</v>
+        <v>0.3386653590240954</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3713845342943053</v>
+        <v>0.3711919120250859</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1152</v>
@@ -9880,19 +9880,19 @@
         <v>1225604</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1169775</v>
+        <v>1164823</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1284609</v>
+        <v>1290550</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3476940613120893</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3318557999401964</v>
+        <v>0.3304509758434649</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.364433365477455</v>
+        <v>0.3661187840913028</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2299</v>
@@ -9901,19 +9901,19 @@
         <v>2428859</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2346187</v>
+        <v>2344070</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2507595</v>
+        <v>2511411</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3516871820832571</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.339716733670573</v>
+        <v>0.3394101854931157</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3630877690999166</v>
+        <v>0.3636403120877352</v>
       </c>
     </row>
     <row r="42">
@@ -9930,19 +9930,19 @@
         <v>434236</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>394095</v>
+        <v>397802</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>478364</v>
+        <v>473712</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1284208413839815</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1165493269735113</v>
+        <v>0.1176457830164217</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1414712184579262</v>
+        <v>0.1400952427194056</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>408</v>
@@ -9951,19 +9951,19 @@
         <v>443704</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>403680</v>
+        <v>403936</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>485660</v>
+        <v>487398</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1258752313218103</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1145208500644476</v>
+        <v>0.1145933337731109</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1377779744540161</v>
+        <v>0.1382710046556098</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>819</v>
@@ -9972,19 +9972,19 @@
         <v>877940</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>822308</v>
+        <v>824702</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>943575</v>
+        <v>936451</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1271215722705288</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1190663145303602</v>
+        <v>0.1194128839211287</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1366251433072726</v>
+        <v>0.1355937062422257</v>
       </c>
     </row>
     <row r="43">
@@ -10001,19 +10001,19 @@
         <v>80871</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>64398</v>
+        <v>64450</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>102301</v>
+        <v>100672</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02391662269263511</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0190450901039433</v>
+        <v>0.0190604339231084</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03025454291336794</v>
+        <v>0.02977276843076686</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>65</v>
@@ -10022,19 +10022,19 @@
         <v>72569</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>57363</v>
+        <v>55936</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>91680</v>
+        <v>90919</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02058726543795327</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01627356124159695</v>
+        <v>0.01586860522973742</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02600876983259851</v>
+        <v>0.02579298654989008</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>141</v>
@@ -10043,19 +10043,19 @@
         <v>153440</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>128351</v>
+        <v>132064</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>181570</v>
+        <v>184949</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02221733217169483</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01858458897721693</v>
+        <v>0.01912223357439741</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02629048507386213</v>
+        <v>0.02677971907941364</v>
       </c>
     </row>
     <row r="44">
@@ -10072,19 +10072,19 @@
         <v>17006</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10075</v>
+        <v>9383</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26407</v>
+        <v>26681</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005029482675648679</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002979560848456929</v>
+        <v>0.00277499622673605</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.007809587388150669</v>
+        <v>0.007890690878443319</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>20</v>
@@ -10093,19 +10093,19 @@
         <v>22835</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14521</v>
+        <v>14726</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>34326</v>
+        <v>35667</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006478048308656711</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.004119436134562124</v>
+        <v>0.004177664173008614</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.009738044696143588</v>
+        <v>0.01011849052559908</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>36</v>
@@ -10114,19 +10114,19 @@
         <v>39841</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>28836</v>
+        <v>28416</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>55054</v>
+        <v>55138</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.005768824735041352</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004175371517988634</v>
+        <v>0.00411450921551974</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.007971581872726596</v>
+        <v>0.007983759982771918</v>
       </c>
     </row>
     <row r="45">
@@ -10460,19 +10460,19 @@
         <v>328537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>304585</v>
+        <v>305422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>352221</v>
+        <v>352605</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5981327088247624</v>
+        <v>0.5981327088247625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5545262376320201</v>
+        <v>0.5560490723907832</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6412516967812432</v>
+        <v>0.6419515797597506</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>471</v>
@@ -10481,19 +10481,19 @@
         <v>340475</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>323193</v>
+        <v>322711</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>359381</v>
+        <v>358149</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.697107125756888</v>
+        <v>0.6971071257568878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6617233932966924</v>
+        <v>0.660736446702038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7358170849805314</v>
+        <v>0.7332940866922184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>793</v>
@@ -10502,19 +10502,19 @@
         <v>669012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>637931</v>
+        <v>637190</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>696844</v>
+        <v>697115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6447174760441449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6147649741907438</v>
+        <v>0.6140512300949588</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6715391803994618</v>
+        <v>0.6718000202027397</v>
       </c>
     </row>
     <row r="5">
@@ -10531,19 +10531,19 @@
         <v>169245</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145905</v>
+        <v>145687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>191680</v>
+        <v>189379</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.308127493981416</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2656334848779621</v>
+        <v>0.2652368604181234</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3489717966874438</v>
+        <v>0.3447830556224839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -10552,19 +10552,19 @@
         <v>115267</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99373</v>
+        <v>100776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131500</v>
+        <v>133011</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2360040679073165</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2034624575258016</v>
+        <v>0.2063336394464857</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2692397862690291</v>
+        <v>0.272334126449805</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>351</v>
@@ -10573,19 +10573,19 @@
         <v>284512</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258984</v>
+        <v>257408</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>312276</v>
+        <v>313327</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2741808124159124</v>
+        <v>0.2741808124159123</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.249579474702912</v>
+        <v>0.2480604961766305</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3009364880252255</v>
+        <v>0.3019489256216087</v>
       </c>
     </row>
     <row r="6">
@@ -10602,19 +10602,19 @@
         <v>36639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26467</v>
+        <v>25469</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51161</v>
+        <v>52495</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06670415369532609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04818602124588953</v>
+        <v>0.04636907451044595</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0931439364078199</v>
+        <v>0.09557129865198059</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -10623,19 +10623,19 @@
         <v>23281</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14806</v>
+        <v>16090</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34070</v>
+        <v>34253</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04766614066522436</v>
+        <v>0.04766614066522434</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0303155417469498</v>
+        <v>0.03294293540304655</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0697559954843236</v>
+        <v>0.07013248503435567</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>65</v>
@@ -10644,19 +10644,19 @@
         <v>59919</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46210</v>
+        <v>45626</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78559</v>
+        <v>78004</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05774344008046275</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04453216319627163</v>
+        <v>0.04396950625471886</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07570593327349155</v>
+        <v>0.07517131440387878</v>
       </c>
     </row>
     <row r="7">
@@ -10673,19 +10673,19 @@
         <v>12166</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6942</v>
+        <v>6571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20133</v>
+        <v>21188</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02214976957256238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01263877073483991</v>
+        <v>0.01196388151932604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03665332208080643</v>
+        <v>0.03857521471859963</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -10694,19 +10694,19 @@
         <v>5651</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2557</v>
+        <v>2628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11061</v>
+        <v>11029</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01156947865548437</v>
+        <v>0.01156947865548436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005234751420043522</v>
+        <v>0.005380140275512688</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02264758972072382</v>
+        <v>0.02258115243403782</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -10715,19 +10715,19 @@
         <v>17817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11299</v>
+        <v>11144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26730</v>
+        <v>26172</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01716989290581292</v>
+        <v>0.01716989290581291</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01088868110475675</v>
+        <v>0.01073974242148152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02575903361745662</v>
+        <v>0.02522144722383656</v>
       </c>
     </row>
     <row r="8">
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9063</v>
+        <v>9518</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004885873925933029</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01650069540451118</v>
+        <v>0.01732821335016573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -10765,19 +10765,19 @@
         <v>3738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1478</v>
+        <v>1409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8336</v>
+        <v>7847</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.007653187015086876</v>
+        <v>0.007653187015086875</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003025930862777023</v>
+        <v>0.002884897953998965</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01706805781174627</v>
+        <v>0.01606547631964622</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -10786,19 +10786,19 @@
         <v>6422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2737</v>
+        <v>2804</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12747</v>
+        <v>13740</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.006188378553667172</v>
+        <v>0.006188378553667171</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002637677415598389</v>
+        <v>0.002702026261854364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0122845156524373</v>
+        <v>0.01324137027871434</v>
       </c>
     </row>
     <row r="9">
@@ -10890,19 +10890,19 @@
         <v>272847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250498</v>
+        <v>247699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>296402</v>
+        <v>295040</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5646527815784343</v>
+        <v>0.5646527815784342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5184008719493831</v>
+        <v>0.5126085180540467</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6133998660437153</v>
+        <v>0.6105814297097135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>340</v>
@@ -10911,19 +10911,19 @@
         <v>248593</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>230491</v>
+        <v>230470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>265342</v>
+        <v>265349</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5898021864279743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5468529935574277</v>
+        <v>0.5468035950373715</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6295395596090035</v>
+        <v>0.6295558907289843</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>598</v>
@@ -10932,19 +10932,19 @@
         <v>521440</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>488341</v>
+        <v>493724</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>548983</v>
+        <v>550385</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5763695321044923</v>
+        <v>0.5763695321044922</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5397838619024572</v>
+        <v>0.5457334061229921</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6068139026793273</v>
+        <v>0.6083633294117512</v>
       </c>
     </row>
     <row r="11">
@@ -10961,19 +10961,19 @@
         <v>148167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128179</v>
+        <v>129387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>169077</v>
+        <v>171640</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3066295468551825</v>
+        <v>0.3066295468551824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2652650691213234</v>
+        <v>0.2677654931615245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3499030936591124</v>
+        <v>0.3552058090428133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -10982,19 +10982,19 @@
         <v>131069</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116250</v>
+        <v>114973</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148416</v>
+        <v>148410</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3109679823930332</v>
+        <v>0.3109679823930333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2758108991961111</v>
+        <v>0.2727791563394633</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3521255679798825</v>
+        <v>0.3521123879041581</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>347</v>
@@ -11003,19 +11003,19 @@
         <v>279236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>252600</v>
+        <v>253038</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>309536</v>
+        <v>303284</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3086507623540976</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2792088603383745</v>
+        <v>0.2796937171698372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3421434073743869</v>
+        <v>0.3352324513435387</v>
       </c>
     </row>
     <row r="12">
@@ -11032,19 +11032,19 @@
         <v>44784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32386</v>
+        <v>33022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58338</v>
+        <v>60501</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09267966449436485</v>
+        <v>0.09267966449436484</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06702289014307221</v>
+        <v>0.06833954068693215</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1207302524787942</v>
+        <v>0.1252061360389085</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -11053,19 +11053,19 @@
         <v>31037</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22799</v>
+        <v>23168</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42068</v>
+        <v>43128</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07363687681106339</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05409279438787431</v>
+        <v>0.05496641844371537</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09980935252054582</v>
+        <v>0.1023243808289336</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>88</v>
@@ -11074,19 +11074,19 @@
         <v>75821</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61411</v>
+        <v>62276</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>93472</v>
+        <v>94431</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08380790017466118</v>
+        <v>0.08380790017466117</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06788001728305228</v>
+        <v>0.06883626021974601</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1033182117537664</v>
+        <v>0.1043782001913768</v>
       </c>
     </row>
     <row r="13">
@@ -11103,19 +11103,19 @@
         <v>15077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8312</v>
+        <v>8288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25223</v>
+        <v>26157</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0312014027218572</v>
+        <v>0.03120140272185719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01720077587246244</v>
+        <v>0.01715153128364803</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05219893228980965</v>
+        <v>0.05413070421274564</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -11124,19 +11124,19 @@
         <v>7412</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3885</v>
+        <v>4237</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12615</v>
+        <v>12295</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01758524462900925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009216947318622852</v>
+        <v>0.01005318010296014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02993058363983299</v>
+        <v>0.02916957629738441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -11145,19 +11145,19 @@
         <v>22489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14638</v>
+        <v>14680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35322</v>
+        <v>34958</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02485782805471425</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01618031301671675</v>
+        <v>0.01622688969919121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03904240916596764</v>
+        <v>0.0386406893581006</v>
       </c>
     </row>
     <row r="14">
@@ -11174,19 +11174,19 @@
         <v>2337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6580</v>
+        <v>7256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004836604350161289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001229309163977702</v>
+        <v>0.001244532620738023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01361758904499679</v>
+        <v>0.01501688328507238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -11195,19 +11195,19 @@
         <v>3375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7392</v>
+        <v>7385</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.008007709738919773</v>
+        <v>0.008007709738919774</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003125145140423792</v>
+        <v>0.003144511364252697</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01753709564723763</v>
+        <v>0.01752129255530393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -11216,19 +11216,19 @@
         <v>5712</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2670</v>
+        <v>2650</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10965</v>
+        <v>10605</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006313977312034804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002950917059641094</v>
+        <v>0.00292965009599195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01211964805870471</v>
+        <v>0.01172168294834309</v>
       </c>
     </row>
     <row r="15">
@@ -11320,19 +11320,19 @@
         <v>251722</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>230074</v>
+        <v>231206</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>273481</v>
+        <v>275029</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5337472784554542</v>
+        <v>0.5337472784554541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4878450142773101</v>
+        <v>0.490246635682945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5798864447276545</v>
+        <v>0.5831685434649579</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -11341,19 +11341,19 @@
         <v>104991</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94615</v>
+        <v>93416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115922</v>
+        <v>115817</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5639323095165779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.508201237873152</v>
+        <v>0.5017614540649004</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6226473416902031</v>
+        <v>0.6220827572057628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>407</v>
@@ -11362,19 +11362,19 @@
         <v>356712</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>331580</v>
+        <v>333252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>381455</v>
+        <v>381195</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5422906557424703</v>
+        <v>0.5422906557424704</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5040830974084237</v>
+        <v>0.5066254556500106</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5799051999972255</v>
+        <v>0.5795102992323646</v>
       </c>
     </row>
     <row r="17">
@@ -11391,19 +11391,19 @@
         <v>164298</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144018</v>
+        <v>142804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185100</v>
+        <v>186482</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3483750930218442</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3053745452195327</v>
+        <v>0.3027995054827201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3924843270239237</v>
+        <v>0.3954140836073449</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>98</v>
@@ -11412,19 +11412,19 @@
         <v>61794</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51127</v>
+        <v>51863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71715</v>
+        <v>73434</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3319098110247173</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2746173251835258</v>
+        <v>0.278568935190709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3851993450838036</v>
+        <v>0.3944354614381321</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>272</v>
@@ -11433,19 +11433,19 @@
         <v>226092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>203148</v>
+        <v>204238</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>250350</v>
+        <v>249023</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3437148653761042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3088351090270673</v>
+        <v>0.3104918480524205</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3805942240299552</v>
+        <v>0.3785770842649107</v>
       </c>
     </row>
     <row r="18">
@@ -11462,19 +11462,19 @@
         <v>37216</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26814</v>
+        <v>27043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52146</v>
+        <v>50683</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07891161308702643</v>
+        <v>0.07891161308702642</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05685622389031551</v>
+        <v>0.05734139171536019</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.110570563712122</v>
+        <v>0.1074667914015767</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -11483,19 +11483,19 @@
         <v>12858</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8227</v>
+        <v>8232</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19470</v>
+        <v>19125</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06906226859097357</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04419069765555327</v>
+        <v>0.04421419011296676</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1045793967459737</v>
+        <v>0.1027237278306609</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>63</v>
@@ -11504,19 +11504,19 @@
         <v>50073</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38368</v>
+        <v>38290</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62525</v>
+        <v>65388</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07612391789170991</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05832937986120178</v>
+        <v>0.05821085562395121</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09505315769287929</v>
+        <v>0.09940609790944199</v>
       </c>
     </row>
     <row r="19">
@@ -11533,19 +11533,19 @@
         <v>11591</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6728</v>
+        <v>6871</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18529</v>
+        <v>18984</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02457834048345329</v>
+        <v>0.02457834048345328</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01426682432151598</v>
+        <v>0.01456830679080291</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03928864932223155</v>
+        <v>0.04025254961625774</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -11554,19 +11554,19 @@
         <v>5788</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2798</v>
+        <v>2930</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10245</v>
+        <v>10837</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03108685861636597</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01503120307496735</v>
+        <v>0.01573678621598879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05502769659908587</v>
+        <v>0.05820642446486498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -11575,19 +11575,19 @@
         <v>17379</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11702</v>
+        <v>11759</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26566</v>
+        <v>26820</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02642046964595972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01779021848438828</v>
+        <v>0.01787637235971115</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04038755952764518</v>
+        <v>0.04077257130119828</v>
       </c>
     </row>
     <row r="20">
@@ -11604,19 +11604,19 @@
         <v>6785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2788</v>
+        <v>2796</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13579</v>
+        <v>13443</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01438767495222195</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005911706007426183</v>
+        <v>0.005928379792096912</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02879187659369488</v>
+        <v>0.02850494567508245</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -11628,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4498</v>
+        <v>4066</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004008752251365364</v>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02416107286236337</v>
+        <v>0.02183933609819263</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -11646,19 +11646,19 @@
         <v>7532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3651</v>
+        <v>3533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15000</v>
+        <v>15017</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01145009134375596</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005550019382897761</v>
+        <v>0.005371680131096541</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02280336591627436</v>
+        <v>0.02282965453060113</v>
       </c>
     </row>
     <row r="21">
@@ -11750,19 +11750,19 @@
         <v>572230</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>532565</v>
+        <v>537369</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>606829</v>
+        <v>608578</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5062067720201711</v>
+        <v>0.5062067720201712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4711176147540296</v>
+        <v>0.475367790762009</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5368133868053834</v>
+        <v>0.5383606354791053</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>649</v>
@@ -11771,19 +11771,19 @@
         <v>475731</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>452027</v>
+        <v>448368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>503376</v>
+        <v>498241</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5547694959381149</v>
+        <v>0.554769495938115</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5271275763774964</v>
+        <v>0.5228601617368596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5870078865053071</v>
+        <v>0.5810192835157328</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1177</v>
@@ -11792,19 +11792,19 @@
         <v>1047962</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1003825</v>
+        <v>1001939</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1094962</v>
+        <v>1093100</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5271548831457888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.504952916212873</v>
+        <v>0.5040041915644043</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5507971949366627</v>
+        <v>0.5498606148059442</v>
       </c>
     </row>
     <row r="23">
@@ -11821,19 +11821,19 @@
         <v>408851</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>376054</v>
+        <v>375890</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>448742</v>
+        <v>443014</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3616782623758666</v>
+        <v>0.3616782623758667</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3326648100672547</v>
+        <v>0.3325196802064344</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3969666548549436</v>
+        <v>0.3918991535295002</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>417</v>
@@ -11842,19 +11842,19 @@
         <v>275003</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>249992</v>
+        <v>252610</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>298059</v>
+        <v>299869</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3206926505793948</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2915256887981086</v>
+        <v>0.2945790405690238</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.347579386371804</v>
+        <v>0.3496900598647409</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>837</v>
@@ -11863,19 +11863,19 @@
         <v>683855</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>640313</v>
+        <v>640481</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>726839</v>
+        <v>724553</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.343998629085225</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3220959995102113</v>
+        <v>0.3221802287829375</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3656209053005167</v>
+        <v>0.3644710368214391</v>
       </c>
     </row>
     <row r="24">
@@ -11892,19 +11892,19 @@
         <v>100524</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82150</v>
+        <v>84711</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119290</v>
+        <v>121356</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08892573605628129</v>
+        <v>0.0889257360562813</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07267199881397816</v>
+        <v>0.07493735168864601</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1055266340042287</v>
+        <v>0.107353682771867</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -11913,19 +11913,19 @@
         <v>68018</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55411</v>
+        <v>55679</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82135</v>
+        <v>83665</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0793183555811456</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06461671581524822</v>
+        <v>0.06492930537503526</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09578148836523076</v>
+        <v>0.09756576151678076</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>209</v>
@@ -11934,19 +11934,19 @@
         <v>168542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>147284</v>
+        <v>146985</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>195626</v>
+        <v>194567</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08478147771197395</v>
+        <v>0.08478147771197393</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07408787497800219</v>
+        <v>0.07393748596340319</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09840533821360506</v>
+        <v>0.09787262951484214</v>
       </c>
     </row>
     <row r="25">
@@ -11963,19 +11963,19 @@
         <v>41233</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30701</v>
+        <v>30907</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52702</v>
+        <v>55117</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03647554292763844</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02715834001243336</v>
+        <v>0.02734118202885249</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04662166193429273</v>
+        <v>0.04875736075895007</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -11984,19 +11984,19 @@
         <v>31163</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22685</v>
+        <v>22289</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41059</v>
+        <v>41344</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0363406347884228</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02645402493827431</v>
+        <v>0.02599187636606268</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04788112463735563</v>
+        <v>0.0482134919583536</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -12005,19 +12005,19 @@
         <v>72396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59144</v>
+        <v>59331</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90049</v>
+        <v>89344</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0364173486900826</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02975117607488862</v>
+        <v>0.02984515670444705</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04529712401402779</v>
+        <v>0.0449425877477827</v>
       </c>
     </row>
     <row r="26">
@@ -12034,19 +12034,19 @@
         <v>7589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3555</v>
+        <v>3439</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13939</v>
+        <v>14101</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.006713686620042518</v>
+        <v>0.00671368662004252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003144804873425557</v>
+        <v>0.003041849529115945</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01233094798677011</v>
+        <v>0.01247440038915081</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -12055,19 +12055,19 @@
         <v>7614</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3858</v>
+        <v>3967</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13358</v>
+        <v>13299</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008878863112921917</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004498534185719222</v>
+        <v>0.004626080006110285</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01557738259770064</v>
+        <v>0.01550803191923023</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -12076,19 +12076,19 @@
         <v>15203</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9651</v>
+        <v>9598</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23624</v>
+        <v>23428</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.007647661366929687</v>
+        <v>0.007647661366929686</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004854618591583544</v>
+        <v>0.004828295458518843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01188378957800878</v>
+        <v>0.01178515114026454</v>
       </c>
     </row>
     <row r="27">
@@ -12180,19 +12180,19 @@
         <v>248336</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>224140</v>
+        <v>221232</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>274774</v>
+        <v>273144</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4397580244639119</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3969103231144617</v>
+        <v>0.3917621530236358</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4865746866876083</v>
+        <v>0.4836878245257643</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>550</v>
@@ -12201,19 +12201,19 @@
         <v>365467</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>342818</v>
+        <v>341924</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>389724</v>
+        <v>388079</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4431157417714167</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4156544689419764</v>
+        <v>0.4145701963127327</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4725264291784118</v>
+        <v>0.4705314900370019</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>772</v>
@@ -12222,19 +12222,19 @@
         <v>613803</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>578395</v>
+        <v>578911</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>649299</v>
+        <v>647917</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4417511005761474</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4162677253160414</v>
+        <v>0.4166389726069823</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.467296923902932</v>
+        <v>0.4663025908384097</v>
       </c>
     </row>
     <row r="29">
@@ -12251,19 +12251,19 @@
         <v>174321</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>153036</v>
+        <v>152449</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>197581</v>
+        <v>197792</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3086913597605748</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2709985523802458</v>
+        <v>0.2699589061578477</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3498795594893814</v>
+        <v>0.3502529637139247</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>436</v>
@@ -12272,19 +12272,19 @@
         <v>275048</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>253832</v>
+        <v>254369</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>299473</v>
+        <v>297857</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3334854346826358</v>
+        <v>0.3334854346826357</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3077625720602805</v>
+        <v>0.3084130401046843</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.363100714103786</v>
+        <v>0.3611409224322479</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>615</v>
@@ -12293,19 +12293,19 @@
         <v>449369</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>417452</v>
+        <v>416399</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>480551</v>
+        <v>482043</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3234086435359794</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3004377592641431</v>
+        <v>0.299679942359494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3458496851146238</v>
+        <v>0.3469239556273527</v>
       </c>
     </row>
     <row r="30">
@@ -12322,19 +12322,19 @@
         <v>85000</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68186</v>
+        <v>67681</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>106563</v>
+        <v>105008</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1505186880144141</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1207456763865255</v>
+        <v>0.1198498922687259</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1887035324446533</v>
+        <v>0.1859496664482855</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>186</v>
@@ -12343,19 +12343,19 @@
         <v>111891</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>97158</v>
+        <v>95676</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>129688</v>
+        <v>127627</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1356638167999922</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1178001522552218</v>
+        <v>0.1160035085768208</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1572417544437082</v>
+        <v>0.1547432781425474</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>264</v>
@@ -12364,19 +12364,19 @@
         <v>196891</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>172839</v>
+        <v>171403</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>222474</v>
+        <v>224074</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1417011235036603</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1243916322122374</v>
+        <v>0.1233577019277322</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1601134659728631</v>
+        <v>0.161265171686221</v>
       </c>
     </row>
     <row r="31">
@@ -12393,19 +12393,19 @@
         <v>42303</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30391</v>
+        <v>31810</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55023</v>
+        <v>56409</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07491114002166765</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05381620217662587</v>
+        <v>0.05633019344378373</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09743552833345319</v>
+        <v>0.09989080325000824</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>83</v>
@@ -12414,19 +12414,19 @@
         <v>52099</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41655</v>
+        <v>41244</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>64424</v>
+        <v>64076</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06316772610609685</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05050486946856391</v>
+        <v>0.05000700961050265</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07811230962768047</v>
+        <v>0.07768984262050058</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>131</v>
@@ -12435,19 +12435,19 @@
         <v>94402</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>78347</v>
+        <v>78112</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>111919</v>
+        <v>112176</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06794047644051861</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05638602883875499</v>
+        <v>0.05621688435134921</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0805478287566133</v>
+        <v>0.08073213925814755</v>
       </c>
     </row>
     <row r="32">
@@ -12464,19 +12464,19 @@
         <v>14751</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8716</v>
+        <v>8315</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24389</v>
+        <v>23109</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02612078773943143</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01543487930453362</v>
+        <v>0.0147237694193133</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04318817728541477</v>
+        <v>0.0409218851610826</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -12485,19 +12485,19 @@
         <v>20262</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13032</v>
+        <v>13008</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33158</v>
+        <v>33946</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02456728063985849</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01580115866393302</v>
+        <v>0.01577186456154241</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04020319382174857</v>
+        <v>0.04115780669316708</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>42</v>
@@ -12506,19 +12506,19 @@
         <v>35013</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>24594</v>
+        <v>24847</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48496</v>
+        <v>49171</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02519865594369431</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01770041924158968</v>
+        <v>0.01788201900429723</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03490229925657968</v>
+        <v>0.03538787719327637</v>
       </c>
     </row>
     <row r="33">
@@ -12610,19 +12610,19 @@
         <v>162101</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>138350</v>
+        <v>137060</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>182425</v>
+        <v>181370</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6833128693800289</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5831946605454145</v>
+        <v>0.5777549329308073</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7689870824201513</v>
+        <v>0.7645387826436634</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>518</v>
@@ -12631,19 +12631,19 @@
         <v>407468</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>380696</v>
+        <v>377388</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>436499</v>
+        <v>437698</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4861743902978075</v>
+        <v>0.4861743902978077</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4542316204959062</v>
+        <v>0.4502843236346786</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5208133166084198</v>
+        <v>0.522243856474595</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>587</v>
@@ -12652,19 +12652,19 @@
         <v>569568</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>532605</v>
+        <v>532965</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>609886</v>
+        <v>605016</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5296646252368178</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4952911393304595</v>
+        <v>0.4956251845969433</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.567157205999093</v>
+        <v>0.5626286123311003</v>
       </c>
     </row>
     <row r="35">
@@ -12681,19 +12681,19 @@
         <v>61334</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>40667</v>
+        <v>43420</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82153</v>
+        <v>85742</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2585438897841146</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1714241589551506</v>
+        <v>0.1830323854048706</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.346305347233101</v>
+        <v>0.3614322330620521</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>416</v>
@@ -12702,19 +12702,19 @@
         <v>292578</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>266566</v>
+        <v>267096</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>318539</v>
+        <v>318274</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3490929336825359</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3180564114850762</v>
+        <v>0.3186883548083866</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3800685633336048</v>
+        <v>0.3797517692388701</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>448</v>
@@ -12723,19 +12723,19 @@
         <v>353912</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>316865</v>
+        <v>319200</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>387915</v>
+        <v>388024</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3291171318452768</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2946656860444391</v>
+        <v>0.2968366187184883</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3607378802660547</v>
+        <v>0.3608387361187052</v>
       </c>
     </row>
     <row r="36">
@@ -12752,19 +12752,19 @@
         <v>10972</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4629</v>
+        <v>4770</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24756</v>
+        <v>24248</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0462492784946585</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01951318138612554</v>
+        <v>0.02010856595800684</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1043565912658243</v>
+        <v>0.1022130300267346</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>150</v>
@@ -12773,19 +12773,19 @@
         <v>96200</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>82651</v>
+        <v>79939</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>114703</v>
+        <v>113502</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1147819366143285</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0986162792096122</v>
+        <v>0.0953798005582855</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1368585566541333</v>
+        <v>0.1354255880054053</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>158</v>
@@ -12794,19 +12794,19 @@
         <v>107172</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>89390</v>
+        <v>90757</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>126398</v>
+        <v>128575</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09966311548668738</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08312781157059126</v>
+        <v>0.08439852369753859</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1175422935603842</v>
+        <v>0.1195671657317014</v>
       </c>
     </row>
     <row r="37">
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3916</v>
+        <v>3923</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004968860506796301</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01650857382163324</v>
+        <v>0.01653651694383435</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>51</v>
@@ -12844,19 +12844,19 @@
         <v>32487</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>24191</v>
+        <v>24220</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>45999</v>
+        <v>44740</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03876269938513201</v>
+        <v>0.03876269938513202</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02886423835453057</v>
+        <v>0.02889825438038971</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05488366619392727</v>
+        <v>0.05338217376043652</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>53</v>
@@ -12865,19 +12865,19 @@
         <v>33666</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25151</v>
+        <v>25194</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47836</v>
+        <v>46919</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03130752371799651</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02338894533627309</v>
+        <v>0.02342853732900026</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.044485035808476</v>
+        <v>0.04363187551071378</v>
       </c>
     </row>
     <row r="38">
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7215</v>
+        <v>8519</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.006925101834401702</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03041369397968874</v>
+        <v>0.03591018192857028</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>15</v>
@@ -12915,19 +12915,19 @@
         <v>9377</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5232</v>
+        <v>5270</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15493</v>
+        <v>14876</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01118804002019605</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.006242826880918609</v>
+        <v>0.006287414068985861</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01848518317112658</v>
+        <v>0.01774948372889535</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>16</v>
@@ -12936,19 +12936,19 @@
         <v>11020</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6506</v>
+        <v>6247</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18698</v>
+        <v>18384</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01024760371322145</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.006049746330603733</v>
+        <v>0.005809777215522414</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01738792978517945</v>
+        <v>0.01709631990378372</v>
       </c>
     </row>
     <row r="39">
@@ -13040,19 +13040,19 @@
         <v>1835773</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1772404</v>
+        <v>1773234</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1902401</v>
+        <v>1902364</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5342043634364955</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5157641665132974</v>
+        <v>0.5160056305219025</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5535928527728369</v>
+        <v>0.553582168810057</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2684</v>
@@ -13061,19 +13061,19 @@
         <v>1942725</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1891771</v>
+        <v>1893825</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1996306</v>
+        <v>1998346</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.5371867248650211</v>
+        <v>0.5371867248650209</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5230974102051825</v>
+        <v>0.5236654008169945</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5520023999172304</v>
+        <v>0.5525667148148731</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4334</v>
@@ -13082,19 +13082,19 @@
         <v>3778498</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3696781</v>
+        <v>3699057</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3867065</v>
+        <v>3861092</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5357336048105191</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5241473523184614</v>
+        <v>0.524470064843935</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5482910684695159</v>
+        <v>0.547444242385385</v>
       </c>
     </row>
     <row r="41">
@@ -13111,19 +13111,19 @@
         <v>1126217</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1068046</v>
+        <v>1068052</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1184578</v>
+        <v>1183539</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.327725714418203</v>
+        <v>0.3277257144182029</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3107980439681541</v>
+        <v>0.3107999907955675</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3447085907102964</v>
+        <v>0.3444061159077698</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1727</v>
@@ -13132,19 +13132,19 @@
         <v>1150759</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1103555</v>
+        <v>1098011</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1198069</v>
+        <v>1196875</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.3181986178995226</v>
+        <v>0.3181986178995225</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3051462489791565</v>
+        <v>0.3036132884605778</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3312804771111385</v>
+        <v>0.3309501467219034</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2870</v>
@@ -13153,19 +13153,19 @@
         <v>2276976</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2197941</v>
+        <v>2199274</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2353418</v>
+        <v>2350672</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3228405821095123</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3116346191936611</v>
+        <v>0.3118236229779047</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3336789023130032</v>
+        <v>0.3332896056831043</v>
       </c>
     </row>
     <row r="42">
@@ -13182,19 +13182,19 @@
         <v>315134</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>278517</v>
+        <v>278554</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>352368</v>
+        <v>354124</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.091702912326014</v>
+        <v>0.09170291232601399</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08104753473182259</v>
+        <v>0.08105836998042508</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1025381089125038</v>
+        <v>0.1030490829510427</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>529</v>
@@ -13203,19 +13203,19 @@
         <v>343284</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>312038</v>
+        <v>315078</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>371478</v>
+        <v>374217</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.09492217965156703</v>
+        <v>0.094922179651567</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08628227907016421</v>
+        <v>0.0871227138841502</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1027180011712067</v>
+        <v>0.1034755503400224</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>847</v>
@@ -13224,19 +13224,19 @@
         <v>658418</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>616168</v>
+        <v>615794</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>707199</v>
+        <v>710480</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.09335363002279969</v>
+        <v>0.09335363002279967</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08736329383262495</v>
+        <v>0.08731020739521224</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1002700993151361</v>
+        <v>0.1007352781731183</v>
       </c>
     </row>
     <row r="43">
@@ -13253,19 +13253,19 @@
         <v>123549</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>101840</v>
+        <v>102187</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>144016</v>
+        <v>145932</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.03595251034641072</v>
+        <v>0.03595251034641071</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02963522503434816</v>
+        <v>0.02973608337690755</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04190807305551202</v>
+        <v>0.04246591289251023</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>212</v>
@@ -13274,19 +13274,19 @@
         <v>134599</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>116379</v>
+        <v>116636</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>153962</v>
+        <v>155231</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.03721836937470489</v>
+        <v>0.03721836937470487</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03218030879214925</v>
+        <v>0.03225115074918352</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04257241658008094</v>
+        <v>0.04292313269629653</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>355</v>
@@ -13295,19 +13295,19 @@
         <v>258149</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>229888</v>
+        <v>228233</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>287831</v>
+        <v>288715</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03660159465297173</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03259461636562851</v>
+        <v>0.03236002458803808</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04081012336850161</v>
+        <v>0.04093536464704485</v>
       </c>
     </row>
     <row r="44">
@@ -13324,19 +13324,19 @@
         <v>35789</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>24370</v>
+        <v>25485</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>48752</v>
+        <v>49803</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01041449947287696</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.007091528526111033</v>
+        <v>0.007416097610760363</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01418669304781859</v>
+        <v>0.01449265950102316</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>63</v>
@@ -13345,19 +13345,19 @@
         <v>45112</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>34343</v>
+        <v>34242</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>59486</v>
+        <v>61126</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01247410820918461</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.009496239914866972</v>
+        <v>0.009468202449294538</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0164487020283263</v>
+        <v>0.01690219983990941</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>102</v>
@@ -13366,19 +13366,19 @@
         <v>80901</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>66384</v>
+        <v>65596</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>100482</v>
+        <v>98989</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01147058840419719</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.009412174328562527</v>
+        <v>0.009300548392245183</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01424685203473135</v>
+        <v>0.01403507006824283</v>
       </c>
     </row>
     <row r="45">
